--- a/TUP/Usulan TUP 5.xlsx
+++ b/TUP/Usulan TUP 5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACK\PUSDIK\2022\Realisasi\ArifMustaqim\TA.2022\TUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\RKAKL DIPA REVISI 2\TA.2022\TUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C73B56-938F-4507-9285-CCEAC2E34202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4759DFF7-B271-4342-B2D0-49729C15342C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E899FA34-6DE3-4640-B916-AC504F664995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E899FA34-6DE3-4640-B916-AC504F664995}"/>
   </bookViews>
   <sheets>
     <sheet name="DIPA Revisi 4, POK 5" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DIPA Revisi 4, POK 5'!$A$7:$H$523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DIPA Revisi 4, POK 5'!$B$7:$J$523</definedName>
     <definedName name="Belanja_Perjalanan_Dinas_Paket_Meeting_Dalam_Kota._Uang_Saku_RDK_dalam__Verifikasi_dan_Pembuatan_Format_Standart_Data_BKU_Satker_Pusat_Pendidikan_KP___tgl.__27__Februari__2020" localSheetId="0">#REF!</definedName>
     <definedName name="Belanja_Perjalanan_Dinas_Paket_Meeting_Dalam_Kota._Uang_Saku_RDK_dalam__Verifikasi_dan_Pembuatan_Format_Standart_Data_BKU_Satker_Pusat_Pendidikan_KP___tgl.__27__Februari__2020">#REF!</definedName>
     <definedName name="cAkun" localSheetId="0">#REF!</definedName>
@@ -3164,20 +3164,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5583,34 +5583,34 @@
       <sheetName val="DIPA_AWAL"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
       <sheetData sheetId="28">
         <row r="2">
           <cell r="C2">
@@ -5618,34 +5618,34 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6043,57 +6043,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6C5435-28AC-48AD-A4AE-D532A2415063}">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection sqref="A1:A1048576"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="C408" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="O469" sqref="O469"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="14" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>868</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="66" t="str">
+      <c r="B2" s="62" t="str">
         <f>'[5]Setting Database'!B8</f>
         <v>Berdasarkan DIPA Revisi 4, Revisi POK 5 TA. 2022 (Tanggal 27 September 2022)</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6102,7 +6102,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="7"/>
@@ -6111,21 +6111,21 @@
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="67" t="s">
@@ -6141,21 +6141,21 @@
         <v>870</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="68"/>
       <c r="H6" s="61"/>
       <c r="I6" s="61"/>
       <c r="J6" s="61"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12">
         <v>1</v>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
@@ -6199,10 +6199,10 @@
       </c>
       <c r="J8" s="50">
         <f>SUM(J9,J107)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>272150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -6228,10 +6228,10 @@
       </c>
       <c r="J9" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>34300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6257,10 +6257,10 @@
       </c>
       <c r="J10" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>34300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6290,10 +6290,10 @@
       </c>
       <c r="J11" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>34300000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -6323,10 +6323,10 @@
       </c>
       <c r="J12" s="54">
         <f>SUM(J13,J34,J48,J94)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>34300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="J16" s="58"/>
     </row>
-    <row r="17" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -6468,12 +6468,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="58">
-        <f t="shared" ref="I17:J19" si="1">G17-H17</f>
+        <f t="shared" ref="I17:I19" si="1">G17-H17</f>
         <v>3000000</v>
       </c>
       <c r="J17" s="58"/>
     </row>
-    <row r="18" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="J18" s="58"/>
     </row>
-    <row r="19" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="J19" s="58"/>
     </row>
-    <row r="20" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="J21" s="58"/>
     </row>
-    <row r="22" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="J23" s="58"/>
     </row>
-    <row r="24" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -6734,12 +6734,12 @@
         <v>2914000</v>
       </c>
       <c r="I26" s="58">
-        <f t="shared" ref="I26:J29" si="2">G26-H26</f>
+        <f t="shared" ref="I26:I29" si="2">G26-H26</f>
         <v>8936000</v>
       </c>
       <c r="J26" s="58"/>
     </row>
-    <row r="27" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="J27" s="58"/>
     </row>
-    <row r="28" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="J28" s="58"/>
     </row>
-    <row r="29" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="J29" s="58"/>
     </row>
-    <row r="30" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="J31" s="58"/>
     </row>
-    <row r="32" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="J33" s="58"/>
     </row>
-    <row r="34" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -7052,19 +7052,19 @@
         <v>75000</v>
       </c>
       <c r="G37" s="58">
-        <f t="shared" ref="G37:I42" si="3">ROUNDDOWN(D37*F37,-3)</f>
+        <f t="shared" ref="G37:G42" si="3">ROUNDDOWN(D37*F37,-3)</f>
         <v>3750000</v>
       </c>
       <c r="H37" s="45">
         <v>2446000</v>
       </c>
       <c r="I37" s="58">
-        <f t="shared" ref="I37:J42" si="4">G37-H37</f>
+        <f t="shared" ref="I37:I42" si="4">G37-H37</f>
         <v>1304000</v>
       </c>
       <c r="J37" s="58"/>
     </row>
-    <row r="38" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="J38" s="58"/>
     </row>
-    <row r="39" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="J39" s="58"/>
     </row>
-    <row r="40" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="J40" s="58"/>
     </row>
-    <row r="41" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="J41" s="58"/>
     </row>
-    <row r="42" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="J42" s="58"/>
     </row>
-    <row r="43" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>77</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="J44" s="58"/>
     </row>
-    <row r="45" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="J47" s="58"/>
     </row>
-    <row r="48" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -7387,10 +7387,10 @@
       </c>
       <c r="J48" s="55">
         <f>SUM(J49,J66,J82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>34300000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -7416,10 +7416,10 @@
       </c>
       <c r="J49" s="56">
         <f>SUM(J50,J54,J57,J60,J62,J64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>34300000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
@@ -7473,12 +7473,12 @@
         <v>13247500</v>
       </c>
       <c r="I51" s="58">
-        <f t="shared" ref="I51:J53" si="5">G51-H51</f>
+        <f t="shared" ref="I51:I53" si="5">G51-H51</f>
         <v>4752500</v>
       </c>
       <c r="J51" s="58"/>
     </row>
-    <row r="52" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="J52" s="58"/>
     </row>
-    <row r="53" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="J53" s="58"/>
     </row>
-    <row r="54" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -7592,12 +7592,12 @@
         <v>963000</v>
       </c>
       <c r="I55" s="58">
-        <f t="shared" ref="I55:J56" si="6">G55-H55</f>
+        <f t="shared" ref="I55:I56" si="6">G55-H55</f>
         <v>1717000</v>
       </c>
       <c r="J55" s="58"/>
     </row>
-    <row r="56" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="J56" s="58"/>
     </row>
-    <row r="57" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>106</v>
       </c>
@@ -7681,12 +7681,12 @@
         <v>5886000</v>
       </c>
       <c r="I58" s="58">
-        <f t="shared" ref="I58:J59" si="7">G58-H58</f>
+        <f t="shared" ref="I58:I59" si="7">G58-H58</f>
         <v>6114000</v>
       </c>
       <c r="J58" s="58"/>
     </row>
-    <row r="59" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="J59" s="58"/>
     </row>
-    <row r="60" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>110</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>111</v>
       </c>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="J61" s="58"/>
     </row>
-    <row r="62" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
@@ -7801,10 +7801,10 @@
       </c>
       <c r="J62" s="57">
         <f>J63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>34300000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
@@ -7832,9 +7832,11 @@
         <f>G63-H63</f>
         <v>34380676</v>
       </c>
-      <c r="J63" s="58"/>
-    </row>
-    <row r="64" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J63" s="58">
+        <v>34300000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>117</v>
       </c>
@@ -7893,7 +7895,7 @@
       </c>
       <c r="J65" s="58"/>
     </row>
-    <row r="66" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
@@ -7922,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>121</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
@@ -7976,12 +7978,12 @@
         <v>16960000</v>
       </c>
       <c r="I68" s="58">
-        <f t="shared" ref="I68:J69" si="8">G68-H68</f>
+        <f t="shared" ref="I68:I69" si="8">G68-H68</f>
         <v>440000</v>
       </c>
       <c r="J68" s="58"/>
     </row>
-    <row r="69" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>124</v>
       </c>
@@ -8011,7 +8013,7 @@
       </c>
       <c r="J69" s="58"/>
     </row>
-    <row r="70" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>125</v>
       </c>
@@ -8040,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -8065,12 +8067,12 @@
         <v>636400</v>
       </c>
       <c r="I71" s="58">
-        <f t="shared" ref="I71:J72" si="9">G71-H71</f>
+        <f t="shared" ref="I71:I72" si="9">G71-H71</f>
         <v>33600</v>
       </c>
       <c r="J71" s="58"/>
     </row>
-    <row r="72" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
@@ -8100,7 +8102,7 @@
       </c>
       <c r="J72" s="58"/>
     </row>
-    <row r="73" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>130</v>
       </c>
@@ -8154,12 +8156,12 @@
         <v>3947000</v>
       </c>
       <c r="I74" s="58">
-        <f t="shared" ref="I74:J75" si="10">G74-H74</f>
+        <f t="shared" ref="I74:I75" si="10">G74-H74</f>
         <v>2053000</v>
       </c>
       <c r="J74" s="58"/>
     </row>
-    <row r="75" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>131</v>
       </c>
@@ -8189,7 +8191,7 @@
       </c>
       <c r="J75" s="58"/>
     </row>
-    <row r="76" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>132</v>
       </c>
@@ -8218,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>133</v>
       </c>
@@ -8248,7 +8250,7 @@
       </c>
       <c r="J77" s="58"/>
     </row>
-    <row r="78" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>134</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>136</v>
       </c>
@@ -8307,7 +8309,7 @@
       </c>
       <c r="J79" s="58"/>
     </row>
-    <row r="80" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>139</v>
       </c>
@@ -8336,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>140</v>
       </c>
@@ -8366,7 +8368,7 @@
       </c>
       <c r="J81" s="58"/>
     </row>
-    <row r="82" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>142</v>
       </c>
@@ -8395,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>145</v>
       </c>
@@ -8424,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>146</v>
       </c>
@@ -8449,12 +8451,12 @@
         <v>3971000</v>
       </c>
       <c r="I84" s="58">
-        <f t="shared" ref="I84:J87" si="11">G84-H84</f>
+        <f t="shared" ref="I84:I87" si="11">G84-H84</f>
         <v>29000</v>
       </c>
       <c r="J84" s="58"/>
     </row>
-    <row r="85" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>147</v>
       </c>
@@ -8484,7 +8486,7 @@
       </c>
       <c r="J85" s="58"/>
     </row>
-    <row r="86" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>148</v>
       </c>
@@ -8514,7 +8516,7 @@
       </c>
       <c r="J86" s="58"/>
     </row>
-    <row r="87" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>150</v>
       </c>
@@ -8544,7 +8546,7 @@
       </c>
       <c r="J87" s="58"/>
     </row>
-    <row r="88" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>152</v>
       </c>
@@ -8573,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>153</v>
       </c>
@@ -8603,7 +8605,7 @@
       </c>
       <c r="J89" s="58"/>
     </row>
-    <row r="90" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>154</v>
       </c>
@@ -8632,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>155</v>
       </c>
@@ -8662,7 +8664,7 @@
       </c>
       <c r="J91" s="58"/>
     </row>
-    <row r="92" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>156</v>
       </c>
@@ -8691,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>157</v>
       </c>
@@ -8721,7 +8723,7 @@
       </c>
       <c r="J93" s="58"/>
     </row>
-    <row r="94" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>159</v>
       </c>
@@ -8750,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>162</v>
       </c>
@@ -8779,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>164</v>
       </c>
@@ -8808,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>165</v>
       </c>
@@ -8833,12 +8835,12 @@
         <v>4497750</v>
       </c>
       <c r="I97" s="58">
-        <f t="shared" ref="I97:J100" si="12">G97-H97</f>
+        <f t="shared" ref="I97:I100" si="12">G97-H97</f>
         <v>2250</v>
       </c>
       <c r="J97" s="58"/>
     </row>
-    <row r="98" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>166</v>
       </c>
@@ -8868,7 +8870,7 @@
       </c>
       <c r="J98" s="58"/>
     </row>
-    <row r="99" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>168</v>
       </c>
@@ -8898,7 +8900,7 @@
       </c>
       <c r="J99" s="58"/>
     </row>
-    <row r="100" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>169</v>
       </c>
@@ -8928,7 +8930,7 @@
       </c>
       <c r="J100" s="58"/>
     </row>
-    <row r="101" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>170</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>171</v>
       </c>
@@ -8987,7 +8989,7 @@
       </c>
       <c r="J102" s="58"/>
     </row>
-    <row r="103" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>173</v>
       </c>
@@ -9016,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>174</v>
       </c>
@@ -9046,7 +9048,7 @@
       </c>
       <c r="J104" s="58"/>
     </row>
-    <row r="105" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>175</v>
       </c>
@@ -9075,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>176</v>
       </c>
@@ -9105,7 +9107,7 @@
       </c>
       <c r="J106" s="58"/>
     </row>
-    <row r="107" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>178</v>
       </c>
@@ -9131,10 +9133,10 @@
       </c>
       <c r="J107" s="51">
         <f>SUM(J108,J460)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>237850000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>180</v>
       </c>
@@ -9160,10 +9162,10 @@
       </c>
       <c r="J108" s="52">
         <f>SUM(J109,J118,J330,J339)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>43310000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>182</v>
       </c>
@@ -9196,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="21" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>186</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>189</v>
       </c>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>191</v>
       </c>
@@ -9287,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>193</v>
       </c>
@@ -9316,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>195</v>
       </c>
@@ -9346,7 +9348,7 @@
       </c>
       <c r="J114" s="58"/>
     </row>
-    <row r="115" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>198</v>
       </c>
@@ -9375,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>200</v>
       </c>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>201</v>
       </c>
@@ -9434,7 +9436,7 @@
       </c>
       <c r="J117" s="58"/>
     </row>
-    <row r="118" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>202</v>
       </c>
@@ -9464,10 +9466,10 @@
       </c>
       <c r="J118" s="53">
         <f>SUM(J119,J133,J256)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>206</v>
       </c>
@@ -9500,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>209</v>
       </c>
@@ -9529,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>211</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>213</v>
       </c>
@@ -9587,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>214</v>
       </c>
@@ -9612,12 +9614,12 @@
         <v>3914900</v>
       </c>
       <c r="I123" s="58">
-        <f t="shared" ref="I123:J124" si="13">G123-H123</f>
+        <f t="shared" ref="I123:I124" si="13">G123-H123</f>
         <v>85100</v>
       </c>
       <c r="J123" s="58"/>
     </row>
-    <row r="124" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>216</v>
       </c>
@@ -9647,7 +9649,7 @@
       </c>
       <c r="J124" s="58"/>
     </row>
-    <row r="125" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>217</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>218</v>
       </c>
@@ -9701,12 +9703,12 @@
         <v>1976000</v>
       </c>
       <c r="I126" s="58">
-        <f t="shared" ref="I126:J127" si="14">G126-H126</f>
+        <f t="shared" ref="I126:I127" si="14">G126-H126</f>
         <v>2024000</v>
       </c>
       <c r="J126" s="58"/>
     </row>
-    <row r="127" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>219</v>
       </c>
@@ -9736,7 +9738,7 @@
       </c>
       <c r="J127" s="58"/>
     </row>
-    <row r="128" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>221</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>222</v>
       </c>
@@ -9795,7 +9797,7 @@
       </c>
       <c r="J129" s="58"/>
     </row>
-    <row r="130" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>224</v>
       </c>
@@ -9824,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>225</v>
       </c>
@@ -9853,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>226</v>
       </c>
@@ -9883,7 +9885,7 @@
       </c>
       <c r="J132" s="58"/>
     </row>
-    <row r="133" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>228</v>
       </c>
@@ -9913,10 +9915,10 @@
       </c>
       <c r="J133" s="54">
         <f>J134</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>231</v>
       </c>
@@ -9942,10 +9944,10 @@
       </c>
       <c r="J134" s="55">
         <f>SUM(J135,J144,J153,J166,J174,J192,J204,J217,J237,J253)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>233</v>
       </c>
@@ -9974,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>235</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>236</v>
       </c>
@@ -10028,12 +10030,12 @@
         <v>1499800</v>
       </c>
       <c r="I137" s="58">
-        <f t="shared" ref="I137:J139" si="15">G137-H137</f>
+        <f t="shared" ref="I137:I139" si="15">G137-H137</f>
         <v>200</v>
       </c>
       <c r="J137" s="58"/>
     </row>
-    <row r="138" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>238</v>
       </c>
@@ -10063,7 +10065,7 @@
       </c>
       <c r="J138" s="58"/>
     </row>
-    <row r="139" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>239</v>
       </c>
@@ -10093,7 +10095,7 @@
       </c>
       <c r="J139" s="58"/>
     </row>
-    <row r="140" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>241</v>
       </c>
@@ -10122,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>242</v>
       </c>
@@ -10152,7 +10154,7 @@
       </c>
       <c r="J141" s="58"/>
     </row>
-    <row r="142" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>244</v>
       </c>
@@ -10181,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>245</v>
       </c>
@@ -10211,7 +10213,7 @@
       </c>
       <c r="J143" s="58"/>
     </row>
-    <row r="144" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>247</v>
       </c>
@@ -10237,10 +10239,10 @@
       </c>
       <c r="J144" s="56">
         <f>SUM(J145,J148,J150)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>249</v>
       </c>
@@ -10266,10 +10268,10 @@
       </c>
       <c r="J145" s="57">
         <f>SUM(J146:J147)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>250</v>
       </c>
@@ -10294,12 +10296,14 @@
         <v>4990000</v>
       </c>
       <c r="I146" s="58">
-        <f t="shared" ref="I146:J147" si="16">G146-H146</f>
+        <f t="shared" ref="I146:I147" si="16">G146-H146</f>
         <v>1010000</v>
       </c>
-      <c r="J146" s="58"/>
-    </row>
-    <row r="147" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J146" s="58">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>251</v>
       </c>
@@ -10329,7 +10333,7 @@
       </c>
       <c r="J147" s="58"/>
     </row>
-    <row r="148" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>252</v>
       </c>
@@ -10358,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>253</v>
       </c>
@@ -10388,7 +10392,7 @@
       </c>
       <c r="J149" s="58"/>
     </row>
-    <row r="150" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>256</v>
       </c>
@@ -10414,10 +10418,10 @@
       </c>
       <c r="J150" s="57">
         <f>SUM(J151:J152)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>257</v>
       </c>
@@ -10442,12 +10446,14 @@
         <v>122641841</v>
       </c>
       <c r="I151" s="58">
-        <f t="shared" ref="I151:J152" si="17">G151-H151</f>
+        <f t="shared" ref="I151:I152" si="17">G151-H151</f>
         <v>70617159</v>
       </c>
-      <c r="J151" s="58"/>
-    </row>
-    <row r="152" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J151" s="58">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>259</v>
       </c>
@@ -10477,7 +10483,7 @@
       </c>
       <c r="J152" s="58"/>
     </row>
-    <row r="153" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>261</v>
       </c>
@@ -10506,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>263</v>
       </c>
@@ -10535,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>264</v>
       </c>
@@ -10560,12 +10566,12 @@
         <v>23902740</v>
       </c>
       <c r="I155" s="58">
-        <f t="shared" ref="I155:J159" si="18">G155-H155</f>
+        <f t="shared" ref="I155:I159" si="18">G155-H155</f>
         <v>97260</v>
       </c>
       <c r="J155" s="58"/>
     </row>
-    <row r="156" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>266</v>
       </c>
@@ -10595,7 +10601,7 @@
       </c>
       <c r="J156" s="58"/>
     </row>
-    <row r="157" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>267</v>
       </c>
@@ -10625,7 +10631,7 @@
       </c>
       <c r="J157" s="58"/>
     </row>
-    <row r="158" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>268</v>
       </c>
@@ -10655,7 +10661,7 @@
       </c>
       <c r="J158" s="58"/>
     </row>
-    <row r="159" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>269</v>
       </c>
@@ -10685,7 +10691,7 @@
       </c>
       <c r="J159" s="58"/>
     </row>
-    <row r="160" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>271</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>273</v>
       </c>
@@ -10744,7 +10750,7 @@
       </c>
       <c r="J161" s="58"/>
     </row>
-    <row r="162" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>276</v>
       </c>
@@ -10773,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>277</v>
       </c>
@@ -10803,7 +10809,7 @@
       </c>
       <c r="J163" s="58"/>
     </row>
-    <row r="164" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>279</v>
       </c>
@@ -10832,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>280</v>
       </c>
@@ -10862,7 +10868,7 @@
       </c>
       <c r="J165" s="58"/>
     </row>
-    <row r="166" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>282</v>
       </c>
@@ -10888,10 +10894,10 @@
       </c>
       <c r="J166" s="56">
         <f>SUM(J167,J172)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>285</v>
       </c>
@@ -10920,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>286</v>
       </c>
@@ -10945,12 +10951,12 @@
         <v>1961500</v>
       </c>
       <c r="I168" s="58">
-        <f t="shared" ref="I168:J171" si="19">G168-H168</f>
+        <f t="shared" ref="I168:I171" si="19">G168-H168</f>
         <v>1038500</v>
       </c>
       <c r="J168" s="58"/>
     </row>
-    <row r="169" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>287</v>
       </c>
@@ -10980,7 +10986,7 @@
       </c>
       <c r="J169" s="58"/>
     </row>
-    <row r="170" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>288</v>
       </c>
@@ -11010,7 +11016,7 @@
       </c>
       <c r="J170" s="58"/>
     </row>
-    <row r="171" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>289</v>
       </c>
@@ -11040,7 +11046,7 @@
       </c>
       <c r="J171" s="58"/>
     </row>
-    <row r="172" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>291</v>
       </c>
@@ -11066,10 +11072,10 @@
       </c>
       <c r="J172" s="57">
         <f>J173</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>292</v>
       </c>
@@ -11097,9 +11103,11 @@
         <f>G173-H173</f>
         <v>11478262</v>
       </c>
-      <c r="J173" s="58"/>
-    </row>
-    <row r="174" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J173" s="58">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>294</v>
       </c>
@@ -11128,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>297</v>
       </c>
@@ -11157,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>298</v>
       </c>
@@ -11182,12 +11190,12 @@
         <v>1498000</v>
       </c>
       <c r="I176" s="58">
-        <f t="shared" ref="I176:J179" si="20">G176-H176</f>
+        <f t="shared" ref="I176:I179" si="20">G176-H176</f>
         <v>2000</v>
       </c>
       <c r="J176" s="58"/>
     </row>
-    <row r="177" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>299</v>
       </c>
@@ -11217,7 +11225,7 @@
       </c>
       <c r="J177" s="58"/>
     </row>
-    <row r="178" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>301</v>
       </c>
@@ -11247,7 +11255,7 @@
       </c>
       <c r="J178" s="58"/>
     </row>
-    <row r="179" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>303</v>
       </c>
@@ -11277,7 +11285,7 @@
       </c>
       <c r="J179" s="58"/>
     </row>
-    <row r="180" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>305</v>
       </c>
@@ -11306,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>307</v>
       </c>
@@ -11331,12 +11339,12 @@
         <v>57400000</v>
       </c>
       <c r="I181" s="58">
-        <f t="shared" ref="I181:J183" si="21">G181-H181</f>
+        <f t="shared" ref="I181:I183" si="21">G181-H181</f>
         <v>0</v>
       </c>
       <c r="J181" s="58"/>
     </row>
-    <row r="182" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>309</v>
       </c>
@@ -11366,7 +11374,7 @@
       </c>
       <c r="J182" s="58"/>
     </row>
-    <row r="183" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>312</v>
       </c>
@@ -11396,7 +11404,7 @@
       </c>
       <c r="J183" s="58"/>
     </row>
-    <row r="184" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>315</v>
       </c>
@@ -11425,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>317</v>
       </c>
@@ -11455,7 +11463,7 @@
       </c>
       <c r="J185" s="58"/>
     </row>
-    <row r="186" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>319</v>
       </c>
@@ -11484,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>320</v>
       </c>
@@ -11514,7 +11522,7 @@
       </c>
       <c r="J187" s="58"/>
     </row>
-    <row r="188" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>321</v>
       </c>
@@ -11543,7 +11551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>322</v>
       </c>
@@ -11573,7 +11581,7 @@
       </c>
       <c r="J189" s="58"/>
     </row>
-    <row r="190" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>324</v>
       </c>
@@ -11602,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>325</v>
       </c>
@@ -11632,7 +11640,7 @@
       </c>
       <c r="J191" s="58"/>
     </row>
-    <row r="192" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>326</v>
       </c>
@@ -11661,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>329</v>
       </c>
@@ -11690,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>330</v>
       </c>
@@ -11715,12 +11723,12 @@
         <v>1499700</v>
       </c>
       <c r="I194" s="58">
-        <f t="shared" ref="I194:J196" si="22">G194-H194</f>
+        <f t="shared" ref="I194:I196" si="22">G194-H194</f>
         <v>300</v>
       </c>
       <c r="J194" s="58"/>
     </row>
-    <row r="195" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>331</v>
       </c>
@@ -11750,7 +11758,7 @@
       </c>
       <c r="J195" s="58"/>
     </row>
-    <row r="196" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>332</v>
       </c>
@@ -11780,7 +11788,7 @@
       </c>
       <c r="J196" s="58"/>
     </row>
-    <row r="197" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>333</v>
       </c>
@@ -11809,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>334</v>
       </c>
@@ -11834,12 +11842,12 @@
         <v>3105000</v>
       </c>
       <c r="I198" s="58">
-        <f t="shared" ref="I198:J199" si="23">G198-H198</f>
+        <f t="shared" ref="I198:I199" si="23">G198-H198</f>
         <v>0</v>
       </c>
       <c r="J198" s="58"/>
     </row>
-    <row r="199" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>336</v>
       </c>
@@ -11869,7 +11877,7 @@
       </c>
       <c r="J199" s="58"/>
     </row>
-    <row r="200" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>338</v>
       </c>
@@ -11898,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>339</v>
       </c>
@@ -11928,7 +11936,7 @@
       </c>
       <c r="J201" s="58"/>
     </row>
-    <row r="202" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>341</v>
       </c>
@@ -11957,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>342</v>
       </c>
@@ -11987,7 +11995,7 @@
       </c>
       <c r="J203" s="58"/>
     </row>
-    <row r="204" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>344</v>
       </c>
@@ -12016,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>347</v>
       </c>
@@ -12045,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>348</v>
       </c>
@@ -12070,12 +12078,12 @@
         <v>10029000</v>
       </c>
       <c r="I206" s="58">
-        <f t="shared" ref="I206:J208" si="24">G206-H206</f>
+        <f t="shared" ref="I206:I208" si="24">G206-H206</f>
         <v>21000</v>
       </c>
       <c r="J206" s="58"/>
     </row>
-    <row r="207" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>349</v>
       </c>
@@ -12105,7 +12113,7 @@
       </c>
       <c r="J207" s="58"/>
     </row>
-    <row r="208" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>350</v>
       </c>
@@ -12135,7 +12143,7 @@
       </c>
       <c r="J208" s="58"/>
     </row>
-    <row r="209" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>351</v>
       </c>
@@ -12164,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>352</v>
       </c>
@@ -12194,7 +12202,7 @@
       </c>
       <c r="J210" s="58"/>
     </row>
-    <row r="211" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>353</v>
       </c>
@@ -12223,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>354</v>
       </c>
@@ -12253,7 +12261,7 @@
       </c>
       <c r="J212" s="58"/>
     </row>
-    <row r="213" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>355</v>
       </c>
@@ -12282,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>356</v>
       </c>
@@ -12312,7 +12320,7 @@
       </c>
       <c r="J214" s="58"/>
     </row>
-    <row r="215" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>359</v>
       </c>
@@ -12341,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>360</v>
       </c>
@@ -12371,7 +12379,7 @@
       </c>
       <c r="J216" s="58"/>
     </row>
-    <row r="217" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>362</v>
       </c>
@@ -12400,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>365</v>
       </c>
@@ -12429,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>366</v>
       </c>
@@ -12447,19 +12455,19 @@
         <v>75000</v>
       </c>
       <c r="G219" s="58">
-        <f t="shared" ref="G219:I227" si="25">ROUNDDOWN(D219*F219,-3)</f>
+        <f t="shared" ref="G219:G227" si="25">ROUNDDOWN(D219*F219,-3)</f>
         <v>42675000</v>
       </c>
       <c r="H219" s="45">
         <v>0</v>
       </c>
       <c r="I219" s="58">
-        <f t="shared" ref="I219:J227" si="26">G219-H219</f>
+        <f t="shared" ref="I219:I227" si="26">G219-H219</f>
         <v>42675000</v>
       </c>
       <c r="J219" s="58"/>
     </row>
-    <row r="220" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>367</v>
       </c>
@@ -12489,7 +12497,7 @@
       </c>
       <c r="J220" s="58"/>
     </row>
-    <row r="221" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>368</v>
       </c>
@@ -12519,7 +12527,7 @@
       </c>
       <c r="J221" s="58"/>
     </row>
-    <row r="222" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>369</v>
       </c>
@@ -12549,7 +12557,7 @@
       </c>
       <c r="J222" s="58"/>
     </row>
-    <row r="223" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>370</v>
       </c>
@@ -12579,7 +12587,7 @@
       </c>
       <c r="J223" s="58"/>
     </row>
-    <row r="224" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>372</v>
       </c>
@@ -12609,7 +12617,7 @@
       </c>
       <c r="J224" s="58"/>
     </row>
-    <row r="225" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>374</v>
       </c>
@@ -12639,7 +12647,7 @@
       </c>
       <c r="J225" s="58"/>
     </row>
-    <row r="226" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>376</v>
       </c>
@@ -12669,7 +12677,7 @@
       </c>
       <c r="J226" s="58"/>
     </row>
-    <row r="227" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>378</v>
       </c>
@@ -12699,7 +12707,7 @@
       </c>
       <c r="J227" s="58"/>
     </row>
-    <row r="228" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>380</v>
       </c>
@@ -12728,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>381</v>
       </c>
@@ -12753,12 +12761,12 @@
         <v>0</v>
       </c>
       <c r="I229" s="58">
-        <f t="shared" ref="I229:J230" si="27">G229-H229</f>
+        <f t="shared" ref="I229:I230" si="27">G229-H229</f>
         <v>196600000</v>
       </c>
       <c r="J229" s="58"/>
     </row>
-    <row r="230" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>383</v>
       </c>
@@ -12788,7 +12796,7 @@
       </c>
       <c r="J230" s="58"/>
     </row>
-    <row r="231" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>385</v>
       </c>
@@ -12817,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>386</v>
       </c>
@@ -12842,12 +12850,12 @@
         <v>0</v>
       </c>
       <c r="I232" s="58">
-        <f t="shared" ref="I232:J234" si="28">G232-H232</f>
+        <f t="shared" ref="I232:I234" si="28">G232-H232</f>
         <v>80000000</v>
       </c>
       <c r="J232" s="58"/>
     </row>
-    <row r="233" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>388</v>
       </c>
@@ -12877,7 +12885,7 @@
       </c>
       <c r="J233" s="58"/>
     </row>
-    <row r="234" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>390</v>
       </c>
@@ -12907,7 +12915,7 @@
       </c>
       <c r="J234" s="58"/>
     </row>
-    <row r="235" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>392</v>
       </c>
@@ -12936,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>393</v>
       </c>
@@ -12966,7 +12974,7 @@
       </c>
       <c r="J236" s="58"/>
     </row>
-    <row r="237" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>395</v>
       </c>
@@ -12995,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>398</v>
       </c>
@@ -13024,7 +13032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>399</v>
       </c>
@@ -13042,19 +13050,19 @@
         <v>75000</v>
       </c>
       <c r="G239" s="58">
-        <f t="shared" ref="G239:I245" si="29">ROUNDDOWN(D239*F239,-3)</f>
+        <f t="shared" ref="G239:G245" si="29">ROUNDDOWN(D239*F239,-3)</f>
         <v>1500000</v>
       </c>
       <c r="H239" s="45">
         <v>1328000</v>
       </c>
       <c r="I239" s="58">
-        <f t="shared" ref="I239:J245" si="30">G239-H239</f>
+        <f t="shared" ref="I239:I245" si="30">G239-H239</f>
         <v>172000</v>
       </c>
       <c r="J239" s="58"/>
     </row>
-    <row r="240" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>400</v>
       </c>
@@ -13084,7 +13092,7 @@
       </c>
       <c r="J240" s="58"/>
     </row>
-    <row r="241" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>401</v>
       </c>
@@ -13114,7 +13122,7 @@
       </c>
       <c r="J241" s="58"/>
     </row>
-    <row r="242" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>402</v>
       </c>
@@ -13144,7 +13152,7 @@
       </c>
       <c r="J242" s="58"/>
     </row>
-    <row r="243" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>403</v>
       </c>
@@ -13174,7 +13182,7 @@
       </c>
       <c r="J243" s="58"/>
     </row>
-    <row r="244" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>405</v>
       </c>
@@ -13204,7 +13212,7 @@
       </c>
       <c r="J244" s="58"/>
     </row>
-    <row r="245" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>407</v>
       </c>
@@ -13234,7 +13242,7 @@
       </c>
       <c r="J245" s="58"/>
     </row>
-    <row r="246" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>409</v>
       </c>
@@ -13263,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>410</v>
       </c>
@@ -13288,12 +13296,12 @@
         <v>620000</v>
       </c>
       <c r="I247" s="58">
-        <f t="shared" ref="I247:J248" si="31">G247-H247</f>
+        <f t="shared" ref="I247:I248" si="31">G247-H247</f>
         <v>2380000</v>
       </c>
       <c r="J247" s="58"/>
     </row>
-    <row r="248" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>412</v>
       </c>
@@ -13323,7 +13331,7 @@
       </c>
       <c r="J248" s="58"/>
     </row>
-    <row r="249" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>414</v>
       </c>
@@ -13352,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>415</v>
       </c>
@@ -13382,7 +13390,7 @@
       </c>
       <c r="J250" s="58"/>
     </row>
-    <row r="251" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>416</v>
       </c>
@@ -13411,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>417</v>
       </c>
@@ -13441,7 +13449,7 @@
       </c>
       <c r="J252" s="58"/>
     </row>
-    <row r="253" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>419</v>
       </c>
@@ -13470,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>422</v>
       </c>
@@ -13499,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>423</v>
       </c>
@@ -13529,7 +13537,7 @@
       </c>
       <c r="J255" s="58"/>
     </row>
-    <row r="256" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>425</v>
       </c>
@@ -13562,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>428</v>
       </c>
@@ -13591,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>431</v>
       </c>
@@ -13620,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>434</v>
       </c>
@@ -13649,7 +13657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>436</v>
       </c>
@@ -13667,19 +13675,19 @@
         <v>1265000</v>
       </c>
       <c r="G260" s="58">
-        <f t="shared" ref="G260:I268" si="32">ROUNDDOWN(D260*F260,-3)</f>
+        <f t="shared" ref="G260:G268" si="32">ROUNDDOWN(D260*F260,-3)</f>
         <v>75900000</v>
       </c>
       <c r="H260" s="45">
         <v>50420661</v>
       </c>
       <c r="I260" s="58">
-        <f t="shared" ref="I260:J268" si="33">G260-H260</f>
+        <f t="shared" ref="I260:I268" si="33">G260-H260</f>
         <v>25479339</v>
       </c>
       <c r="J260" s="58"/>
     </row>
-    <row r="261" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>439</v>
       </c>
@@ -13709,7 +13717,7 @@
       </c>
       <c r="J261" s="58"/>
     </row>
-    <row r="262" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>441</v>
       </c>
@@ -13739,7 +13747,7 @@
       </c>
       <c r="J262" s="58"/>
     </row>
-    <row r="263" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>444</v>
       </c>
@@ -13769,7 +13777,7 @@
       </c>
       <c r="J263" s="58"/>
     </row>
-    <row r="264" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>446</v>
       </c>
@@ -13799,7 +13807,7 @@
       </c>
       <c r="J264" s="58"/>
     </row>
-    <row r="265" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>449</v>
       </c>
@@ -13829,7 +13837,7 @@
       </c>
       <c r="J265" s="58"/>
     </row>
-    <row r="266" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>451</v>
       </c>
@@ -13859,7 +13867,7 @@
       </c>
       <c r="J266" s="58"/>
     </row>
-    <row r="267" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>454</v>
       </c>
@@ -13889,7 +13897,7 @@
       </c>
       <c r="J267" s="58"/>
     </row>
-    <row r="268" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>456</v>
       </c>
@@ -13919,7 +13927,7 @@
       </c>
       <c r="J268" s="58"/>
     </row>
-    <row r="269" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>458</v>
       </c>
@@ -13948,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>459</v>
       </c>
@@ -13966,19 +13974,19 @@
         <v>1000000</v>
       </c>
       <c r="G270" s="58">
-        <f t="shared" ref="G270:I278" si="34">ROUNDDOWN(D270*F270,-3)</f>
+        <f t="shared" ref="G270:G278" si="34">ROUNDDOWN(D270*F270,-3)</f>
         <v>40000000</v>
       </c>
       <c r="H270" s="45">
         <v>28888500</v>
       </c>
       <c r="I270" s="58">
-        <f t="shared" ref="I270:J278" si="35">G270-H270</f>
+        <f t="shared" ref="I270:I278" si="35">G270-H270</f>
         <v>11111500</v>
       </c>
       <c r="J270" s="58"/>
     </row>
-    <row r="271" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>460</v>
       </c>
@@ -14008,7 +14016,7 @@
       </c>
       <c r="J271" s="58"/>
     </row>
-    <row r="272" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>461</v>
       </c>
@@ -14038,7 +14046,7 @@
       </c>
       <c r="J272" s="58"/>
     </row>
-    <row r="273" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>463</v>
       </c>
@@ -14068,7 +14076,7 @@
       </c>
       <c r="J273" s="58"/>
     </row>
-    <row r="274" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>465</v>
       </c>
@@ -14098,7 +14106,7 @@
       </c>
       <c r="J274" s="58"/>
     </row>
-    <row r="275" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>468</v>
       </c>
@@ -14128,7 +14136,7 @@
       </c>
       <c r="J275" s="58"/>
     </row>
-    <row r="276" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>470</v>
       </c>
@@ -14158,7 +14166,7 @@
       </c>
       <c r="J276" s="58"/>
     </row>
-    <row r="277" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>473</v>
       </c>
@@ -14188,7 +14196,7 @@
       </c>
       <c r="J277" s="58"/>
     </row>
-    <row r="278" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>476</v>
       </c>
@@ -14218,7 +14226,7 @@
       </c>
       <c r="J278" s="58"/>
     </row>
-    <row r="279" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>478</v>
       </c>
@@ -14247,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>481</v>
       </c>
@@ -14276,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>483</v>
       </c>
@@ -14306,7 +14314,7 @@
       </c>
       <c r="J281" s="58"/>
     </row>
-    <row r="282" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>485</v>
       </c>
@@ -14335,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>486</v>
       </c>
@@ -14360,12 +14368,12 @@
         <v>44550000</v>
       </c>
       <c r="I283" s="58">
-        <f t="shared" ref="I283:J284" si="36">G283-H283</f>
+        <f t="shared" ref="I283:I284" si="36">G283-H283</f>
         <v>15450000</v>
       </c>
       <c r="J283" s="58"/>
     </row>
-    <row r="284" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>488</v>
       </c>
@@ -14395,7 +14403,7 @@
       </c>
       <c r="J284" s="58"/>
     </row>
-    <row r="285" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>490</v>
       </c>
@@ -14424,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>493</v>
       </c>
@@ -14453,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>495</v>
       </c>
@@ -14471,19 +14479,19 @@
         <v>38730000</v>
       </c>
       <c r="G287" s="58">
-        <f t="shared" ref="G287:I295" si="37">ROUNDDOWN(D287*F287,-3)</f>
+        <f t="shared" ref="G287:G295" si="37">ROUNDDOWN(D287*F287,-3)</f>
         <v>38730000</v>
       </c>
       <c r="H287" s="45">
         <v>12883000</v>
       </c>
       <c r="I287" s="58">
-        <f t="shared" ref="I287:J295" si="38">G287-H287</f>
+        <f t="shared" ref="I287:I295" si="38">G287-H287</f>
         <v>25847000</v>
       </c>
       <c r="J287" s="58"/>
     </row>
-    <row r="288" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>498</v>
       </c>
@@ -14513,7 +14521,7 @@
       </c>
       <c r="J288" s="58"/>
     </row>
-    <row r="289" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>501</v>
       </c>
@@ -14543,7 +14551,7 @@
       </c>
       <c r="J289" s="58"/>
     </row>
-    <row r="290" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>503</v>
       </c>
@@ -14573,7 +14581,7 @@
       </c>
       <c r="J290" s="58"/>
     </row>
-    <row r="291" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>505</v>
       </c>
@@ -14603,7 +14611,7 @@
       </c>
       <c r="J291" s="58"/>
     </row>
-    <row r="292" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>507</v>
       </c>
@@ -14633,7 +14641,7 @@
       </c>
       <c r="J292" s="58"/>
     </row>
-    <row r="293" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>509</v>
       </c>
@@ -14663,7 +14671,7 @@
       </c>
       <c r="J293" s="58"/>
     </row>
-    <row r="294" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>511</v>
       </c>
@@ -14693,7 +14701,7 @@
       </c>
       <c r="J294" s="58"/>
     </row>
-    <row r="295" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>513</v>
       </c>
@@ -14723,7 +14731,7 @@
       </c>
       <c r="J295" s="58"/>
     </row>
-    <row r="296" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>515</v>
       </c>
@@ -14752,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>517</v>
       </c>
@@ -14782,7 +14790,7 @@
       </c>
       <c r="J297" s="58"/>
     </row>
-    <row r="298" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>520</v>
       </c>
@@ -14811,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>523</v>
       </c>
@@ -14840,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>524</v>
       </c>
@@ -14865,12 +14873,12 @@
         <v>79055000</v>
       </c>
       <c r="I300" s="58">
-        <f t="shared" ref="I300:J301" si="39">G300-H300</f>
+        <f t="shared" ref="I300:I301" si="39">G300-H300</f>
         <v>6621000</v>
       </c>
       <c r="J300" s="58"/>
     </row>
-    <row r="301" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>527</v>
       </c>
@@ -14900,7 +14908,7 @@
       </c>
       <c r="J301" s="58"/>
     </row>
-    <row r="302" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>530</v>
       </c>
@@ -14929,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>532</v>
       </c>
@@ -14947,19 +14955,19 @@
         <v>2920000</v>
       </c>
       <c r="G303" s="58">
-        <f t="shared" ref="G303:I312" si="40">ROUNDDOWN(D303*F303,-3)</f>
+        <f t="shared" ref="G303:G312" si="40">ROUNDDOWN(D303*F303,-3)</f>
         <v>35040000</v>
       </c>
       <c r="H303" s="45">
         <v>23360000</v>
       </c>
       <c r="I303" s="58">
-        <f t="shared" ref="I303:J312" si="41">G303-H303</f>
+        <f t="shared" ref="I303:I312" si="41">G303-H303</f>
         <v>11680000</v>
       </c>
       <c r="J303" s="58"/>
     </row>
-    <row r="304" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>534</v>
       </c>
@@ -14989,7 +14997,7 @@
       </c>
       <c r="J304" s="58"/>
     </row>
-    <row r="305" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>536</v>
       </c>
@@ -15019,7 +15027,7 @@
       </c>
       <c r="J305" s="58"/>
     </row>
-    <row r="306" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>538</v>
       </c>
@@ -15049,7 +15057,7 @@
       </c>
       <c r="J306" s="58"/>
     </row>
-    <row r="307" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>540</v>
       </c>
@@ -15079,7 +15087,7 @@
       </c>
       <c r="J307" s="58"/>
     </row>
-    <row r="308" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>542</v>
       </c>
@@ -15109,7 +15117,7 @@
       </c>
       <c r="J308" s="58"/>
     </row>
-    <row r="309" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>544</v>
       </c>
@@ -15139,7 +15147,7 @@
       </c>
       <c r="J309" s="58"/>
     </row>
-    <row r="310" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>546</v>
       </c>
@@ -15169,7 +15177,7 @@
       </c>
       <c r="J310" s="58"/>
     </row>
-    <row r="311" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>548</v>
       </c>
@@ -15199,7 +15207,7 @@
       </c>
       <c r="J311" s="58"/>
     </row>
-    <row r="312" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>550</v>
       </c>
@@ -15229,7 +15237,7 @@
       </c>
       <c r="J312" s="58"/>
     </row>
-    <row r="313" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>552</v>
       </c>
@@ -15258,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>555</v>
       </c>
@@ -15287,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>556</v>
       </c>
@@ -15312,12 +15320,12 @@
         <v>0</v>
       </c>
       <c r="I315" s="58">
-        <f t="shared" ref="I315:J318" si="42">G315-H315</f>
+        <f t="shared" ref="I315:I318" si="42">G315-H315</f>
         <v>3000000</v>
       </c>
       <c r="J315" s="58"/>
     </row>
-    <row r="316" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>558</v>
       </c>
@@ -15347,7 +15355,7 @@
       </c>
       <c r="J316" s="58"/>
     </row>
-    <row r="317" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>560</v>
       </c>
@@ -15377,7 +15385,7 @@
       </c>
       <c r="J317" s="58"/>
     </row>
-    <row r="318" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>562</v>
       </c>
@@ -15407,7 +15415,7 @@
       </c>
       <c r="J318" s="58"/>
     </row>
-    <row r="319" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>564</v>
       </c>
@@ -15436,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>565</v>
       </c>
@@ -15461,12 +15469,12 @@
         <v>0</v>
       </c>
       <c r="I320" s="58">
-        <f t="shared" ref="I320:J323" si="43">G320-H320</f>
+        <f t="shared" ref="I320:I323" si="43">G320-H320</f>
         <v>8000000</v>
       </c>
       <c r="J320" s="58"/>
     </row>
-    <row r="321" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>566</v>
       </c>
@@ -15496,7 +15504,7 @@
       </c>
       <c r="J321" s="58"/>
     </row>
-    <row r="322" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>567</v>
       </c>
@@ -15526,7 +15534,7 @@
       </c>
       <c r="J322" s="58"/>
     </row>
-    <row r="323" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>569</v>
       </c>
@@ -15556,7 +15564,7 @@
       </c>
       <c r="J323" s="58"/>
     </row>
-    <row r="324" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>571</v>
       </c>
@@ -15585,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>572</v>
       </c>
@@ -15610,12 +15618,12 @@
         <v>0</v>
       </c>
       <c r="I325" s="58">
-        <f t="shared" ref="I325:J329" si="44">G325-H325</f>
+        <f t="shared" ref="I325:I329" si="44">G325-H325</f>
         <v>7200000</v>
       </c>
       <c r="J325" s="58"/>
     </row>
-    <row r="326" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>574</v>
       </c>
@@ -15645,7 +15653,7 @@
       </c>
       <c r="J326" s="58"/>
     </row>
-    <row r="327" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>576</v>
       </c>
@@ -15675,7 +15683,7 @@
       </c>
       <c r="J327" s="58"/>
     </row>
-    <row r="328" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>578</v>
       </c>
@@ -15705,7 +15713,7 @@
       </c>
       <c r="J328" s="58"/>
     </row>
-    <row r="329" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>580</v>
       </c>
@@ -15735,7 +15743,7 @@
       </c>
       <c r="J329" s="58"/>
     </row>
-    <row r="330" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>582</v>
       </c>
@@ -15768,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>585</v>
       </c>
@@ -15801,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>588</v>
       </c>
@@ -15830,7 +15838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>590</v>
       </c>
@@ -15859,7 +15867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>592</v>
       </c>
@@ -15888,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>593</v>
       </c>
@@ -15918,7 +15926,7 @@
       </c>
       <c r="J335" s="58"/>
     </row>
-    <row r="336" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>595</v>
       </c>
@@ -15947,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>596</v>
       </c>
@@ -15976,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>597</v>
       </c>
@@ -16006,7 +16014,7 @@
       </c>
       <c r="J338" s="58"/>
     </row>
-    <row r="339" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>598</v>
       </c>
@@ -16036,10 +16044,10 @@
       </c>
       <c r="J339" s="53">
         <f>SUM(J340,J377,J418)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>20310000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>602</v>
       </c>
@@ -16069,10 +16077,10 @@
       </c>
       <c r="J340" s="54">
         <f>J341</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>605</v>
       </c>
@@ -16098,10 +16106,10 @@
       </c>
       <c r="J341" s="55">
         <f>SUM(J342,J352,J365,J374)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>607</v>
       </c>
@@ -16130,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>609</v>
       </c>
@@ -16159,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>610</v>
       </c>
@@ -16189,7 +16197,7 @@
       </c>
       <c r="J344" s="58"/>
     </row>
-    <row r="345" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>611</v>
       </c>
@@ -16218,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>612</v>
       </c>
@@ -16248,7 +16256,7 @@
       </c>
       <c r="J346" s="58"/>
     </row>
-    <row r="347" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>614</v>
       </c>
@@ -16277,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>615</v>
       </c>
@@ -16302,12 +16310,12 @@
         <v>1939000</v>
       </c>
       <c r="I348" s="58">
-        <f t="shared" ref="I348:J349" si="45">G348-H348</f>
+        <f t="shared" ref="I348:I349" si="45">G348-H348</f>
         <v>2061000</v>
       </c>
       <c r="J348" s="58"/>
     </row>
-    <row r="349" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>616</v>
       </c>
@@ -16337,7 +16345,7 @@
       </c>
       <c r="J349" s="58"/>
     </row>
-    <row r="350" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>617</v>
       </c>
@@ -16366,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>618</v>
       </c>
@@ -16396,7 +16404,7 @@
       </c>
       <c r="J351" s="58"/>
     </row>
-    <row r="352" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>620</v>
       </c>
@@ -16422,10 +16430,10 @@
       </c>
       <c r="J352" s="56">
         <f>SUM(J353,J356,J358,J361,J363)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>622</v>
       </c>
@@ -16451,10 +16459,10 @@
       </c>
       <c r="J353" s="57">
         <f>SUM(J354:J355)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>623</v>
       </c>
@@ -16479,12 +16487,14 @@
         <v>8904100</v>
       </c>
       <c r="I354" s="58">
-        <f t="shared" ref="I354:J355" si="46">G354-H354</f>
+        <f t="shared" ref="I354:I355" si="46">G354-H354</f>
         <v>3095900</v>
       </c>
-      <c r="J354" s="58"/>
-    </row>
-    <row r="355" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J354" s="58">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>624</v>
       </c>
@@ -16514,7 +16524,7 @@
       </c>
       <c r="J355" s="58"/>
     </row>
-    <row r="356" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>626</v>
       </c>
@@ -16540,10 +16550,10 @@
       </c>
       <c r="J356" s="57">
         <f>J357</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>627</v>
       </c>
@@ -16571,9 +16581,11 @@
         <f>G357-H357</f>
         <v>281168</v>
       </c>
-      <c r="J357" s="58"/>
-    </row>
-    <row r="358" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J357" s="58">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>628</v>
       </c>
@@ -16602,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>629</v>
       </c>
@@ -16627,12 +16639,12 @@
         <v>3898000</v>
       </c>
       <c r="I359" s="58">
-        <f t="shared" ref="I359:J360" si="47">G359-H359</f>
+        <f t="shared" ref="I359:I360" si="47">G359-H359</f>
         <v>4102000</v>
       </c>
       <c r="J359" s="58"/>
     </row>
-    <row r="360" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>630</v>
       </c>
@@ -16662,7 +16674,7 @@
       </c>
       <c r="J360" s="58"/>
     </row>
-    <row r="361" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>631</v>
       </c>
@@ -16691,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>632</v>
       </c>
@@ -16721,7 +16733,7 @@
       </c>
       <c r="J362" s="58"/>
     </row>
-    <row r="363" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>633</v>
       </c>
@@ -16750,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>634</v>
       </c>
@@ -16780,7 +16792,7 @@
       </c>
       <c r="J364" s="58"/>
     </row>
-    <row r="365" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>636</v>
       </c>
@@ -16809,7 +16821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>638</v>
       </c>
@@ -16838,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>639</v>
       </c>
@@ -16863,12 +16875,12 @@
         <v>10271750</v>
       </c>
       <c r="I367" s="58">
-        <f t="shared" ref="I367:J368" si="48">G367-H367</f>
+        <f t="shared" ref="I367:I368" si="48">G367-H367</f>
         <v>228250</v>
       </c>
       <c r="J367" s="58"/>
     </row>
-    <row r="368" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>640</v>
       </c>
@@ -16898,7 +16910,7 @@
       </c>
       <c r="J368" s="58"/>
     </row>
-    <row r="369" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>641</v>
       </c>
@@ -16927,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>642</v>
       </c>
@@ -16952,12 +16964,12 @@
         <v>3977000</v>
       </c>
       <c r="I370" s="58">
-        <f t="shared" ref="I370:J371" si="49">G370-H370</f>
+        <f t="shared" ref="I370:I371" si="49">G370-H370</f>
         <v>1023000</v>
       </c>
       <c r="J370" s="58"/>
     </row>
-    <row r="371" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>643</v>
       </c>
@@ -16987,7 +16999,7 @@
       </c>
       <c r="J371" s="58"/>
     </row>
-    <row r="372" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>644</v>
       </c>
@@ -17016,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>645</v>
       </c>
@@ -17046,7 +17058,7 @@
       </c>
       <c r="J373" s="58"/>
     </row>
-    <row r="374" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>647</v>
       </c>
@@ -17075,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>648</v>
       </c>
@@ -17104,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>649</v>
       </c>
@@ -17134,7 +17146,7 @@
       </c>
       <c r="J376" s="58"/>
     </row>
-    <row r="377" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>650</v>
       </c>
@@ -17164,10 +17176,10 @@
       </c>
       <c r="J377" s="54">
         <f>SUM(J378,J403)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>17060000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>653</v>
       </c>
@@ -17193,10 +17205,10 @@
       </c>
       <c r="J378" s="55">
         <f>SUM(J379,J389,J400)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>13060000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>655</v>
       </c>
@@ -17222,10 +17234,10 @@
       </c>
       <c r="J379" s="56">
         <f>SUM(J380,J385,J387)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>9060000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>657</v>
       </c>
@@ -17251,10 +17263,10 @@
       </c>
       <c r="J380" s="57">
         <f>SUM(J381:J384)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>658</v>
       </c>
@@ -17279,12 +17291,14 @@
         <v>1460000</v>
       </c>
       <c r="I381" s="58">
-        <f t="shared" ref="I381:J384" si="50">G381-H381</f>
+        <f t="shared" ref="I381:I384" si="50">G381-H381</f>
         <v>3040000</v>
       </c>
-      <c r="J381" s="58"/>
-    </row>
-    <row r="382" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J381" s="58">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>659</v>
       </c>
@@ -17314,7 +17328,7 @@
       </c>
       <c r="J382" s="58"/>
     </row>
-    <row r="383" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>660</v>
       </c>
@@ -17342,9 +17356,11 @@
         <f t="shared" si="50"/>
         <v>1031500</v>
       </c>
-      <c r="J383" s="58"/>
-    </row>
-    <row r="384" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J383" s="58">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>661</v>
       </c>
@@ -17374,7 +17390,7 @@
       </c>
       <c r="J384" s="58"/>
     </row>
-    <row r="385" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>662</v>
       </c>
@@ -17400,10 +17416,10 @@
       </c>
       <c r="J385" s="57">
         <f>J386</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>663</v>
       </c>
@@ -17431,9 +17447,11 @@
         <f>G386-H386</f>
         <v>700185</v>
       </c>
-      <c r="J386" s="58"/>
-    </row>
-    <row r="387" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J386" s="58">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>665</v>
       </c>
@@ -17459,10 +17477,10 @@
       </c>
       <c r="J387" s="57">
         <f>J388</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>6180000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>666</v>
       </c>
@@ -17490,9 +17508,11 @@
         <f>G388-H388</f>
         <v>9924000</v>
       </c>
-      <c r="J388" s="58"/>
-    </row>
-    <row r="389" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J388" s="58">
+        <v>6180000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>668</v>
       </c>
@@ -17518,10 +17538,10 @@
       </c>
       <c r="J389" s="56">
         <f>SUM(J390,J396,J398)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>670</v>
       </c>
@@ -17547,10 +17567,10 @@
       </c>
       <c r="J390" s="57">
         <f>SUM(J391:J395)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>671</v>
       </c>
@@ -17575,12 +17595,14 @@
         <v>1500000</v>
       </c>
       <c r="I391" s="58">
-        <f t="shared" ref="I391:J395" si="51">G391-H391</f>
+        <f t="shared" ref="I391:I395" si="51">G391-H391</f>
         <v>1500000</v>
       </c>
-      <c r="J391" s="58"/>
-    </row>
-    <row r="392" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J391" s="58">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>672</v>
       </c>
@@ -17610,7 +17632,7 @@
       </c>
       <c r="J392" s="58"/>
     </row>
-    <row r="393" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>673</v>
       </c>
@@ -17640,7 +17662,7 @@
       </c>
       <c r="J393" s="58"/>
     </row>
-    <row r="394" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>675</v>
       </c>
@@ -17668,9 +17690,11 @@
         <f t="shared" si="51"/>
         <v>1001000</v>
       </c>
-      <c r="J394" s="58"/>
-    </row>
-    <row r="395" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J394" s="58">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>677</v>
       </c>
@@ -17698,9 +17722,11 @@
         <f t="shared" si="51"/>
         <v>1500000</v>
       </c>
-      <c r="J395" s="58"/>
-    </row>
-    <row r="396" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J395" s="58">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>679</v>
       </c>
@@ -17729,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>680</v>
       </c>
@@ -17759,7 +17785,7 @@
       </c>
       <c r="J397" s="58"/>
     </row>
-    <row r="398" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>682</v>
       </c>
@@ -17788,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>683</v>
       </c>
@@ -17818,7 +17844,7 @@
       </c>
       <c r="J399" s="58"/>
     </row>
-    <row r="400" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>685</v>
       </c>
@@ -17847,7 +17873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>686</v>
       </c>
@@ -17876,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>687</v>
       </c>
@@ -17906,7 +17932,7 @@
       </c>
       <c r="J402" s="58"/>
     </row>
-    <row r="403" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>688</v>
       </c>
@@ -17932,10 +17958,10 @@
       </c>
       <c r="J403" s="55">
         <f>SUM(J404,J415)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>690</v>
       </c>
@@ -17961,10 +17987,10 @@
       </c>
       <c r="J404" s="56">
         <f>SUM(J405,J411,J413)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>692</v>
       </c>
@@ -17990,10 +18016,10 @@
       </c>
       <c r="J405" s="57">
         <f>SUM(J406:J410)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>693</v>
       </c>
@@ -18018,12 +18044,14 @@
         <v>2975000</v>
       </c>
       <c r="I406" s="58">
-        <f t="shared" ref="I406:J410" si="52">G406-H406</f>
+        <f t="shared" ref="I406:I410" si="52">G406-H406</f>
         <v>3025000</v>
       </c>
-      <c r="J406" s="58"/>
-    </row>
-    <row r="407" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J406" s="58">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>694</v>
       </c>
@@ -18053,7 +18081,7 @@
       </c>
       <c r="J407" s="58"/>
     </row>
-    <row r="408" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>695</v>
       </c>
@@ -18081,9 +18109,11 @@
         <f t="shared" si="52"/>
         <v>2016000</v>
       </c>
-      <c r="J408" s="58"/>
-    </row>
-    <row r="409" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J408" s="58">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>696</v>
       </c>
@@ -18111,9 +18141,11 @@
         <f t="shared" si="52"/>
         <v>1550000</v>
       </c>
-      <c r="J409" s="58"/>
-    </row>
-    <row r="410" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J409" s="58">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>697</v>
       </c>
@@ -18143,7 +18175,7 @@
       </c>
       <c r="J410" s="58"/>
     </row>
-    <row r="411" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>699</v>
       </c>
@@ -18172,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>700</v>
       </c>
@@ -18202,7 +18234,7 @@
       </c>
       <c r="J412" s="58"/>
     </row>
-    <row r="413" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>702</v>
       </c>
@@ -18231,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>703</v>
       </c>
@@ -18261,7 +18293,7 @@
       </c>
       <c r="J414" s="58"/>
     </row>
-    <row r="415" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>705</v>
       </c>
@@ -18290,7 +18322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>706</v>
       </c>
@@ -18319,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>707</v>
       </c>
@@ -18349,7 +18381,7 @@
       </c>
       <c r="J417" s="58"/>
     </row>
-    <row r="418" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>708</v>
       </c>
@@ -18382,7 +18414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>711</v>
       </c>
@@ -18411,7 +18443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>713</v>
       </c>
@@ -18440,7 +18472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>715</v>
       </c>
@@ -18469,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>716</v>
       </c>
@@ -18494,12 +18526,12 @@
         <v>2090000</v>
       </c>
       <c r="I422" s="58">
-        <f t="shared" ref="I422:J425" si="53">G422-H422</f>
+        <f t="shared" ref="I422:I425" si="53">G422-H422</f>
         <v>910000</v>
       </c>
       <c r="J422" s="58"/>
     </row>
-    <row r="423" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>717</v>
       </c>
@@ -18529,7 +18561,7 @@
       </c>
       <c r="J423" s="58"/>
     </row>
-    <row r="424" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>718</v>
       </c>
@@ -18559,7 +18591,7 @@
       </c>
       <c r="J424" s="58"/>
     </row>
-    <row r="425" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>719</v>
       </c>
@@ -18589,7 +18621,7 @@
       </c>
       <c r="J425" s="58"/>
     </row>
-    <row r="426" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>720</v>
       </c>
@@ -18618,7 +18650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>721</v>
       </c>
@@ -18648,7 +18680,7 @@
       </c>
       <c r="J427" s="58"/>
     </row>
-    <row r="428" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>723</v>
       </c>
@@ -18677,7 +18709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>725</v>
       </c>
@@ -18706,7 +18738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>726</v>
       </c>
@@ -18731,12 +18763,12 @@
         <v>4385000</v>
       </c>
       <c r="I430" s="58">
-        <f t="shared" ref="I430:J431" si="54">G430-H430</f>
+        <f t="shared" ref="I430:I431" si="54">G430-H430</f>
         <v>115000</v>
       </c>
       <c r="J430" s="58"/>
     </row>
-    <row r="431" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>728</v>
       </c>
@@ -18766,7 +18798,7 @@
       </c>
       <c r="J431" s="58"/>
     </row>
-    <row r="432" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>729</v>
       </c>
@@ -18795,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>730</v>
       </c>
@@ -18825,7 +18857,7 @@
       </c>
       <c r="J433" s="58"/>
     </row>
-    <row r="434" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>731</v>
       </c>
@@ -18854,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>733</v>
       </c>
@@ -18883,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>734</v>
       </c>
@@ -18908,12 +18940,12 @@
         <v>4470000</v>
       </c>
       <c r="I436" s="58">
-        <f t="shared" ref="I436:J437" si="55">G436-H436</f>
+        <f t="shared" ref="I436:I437" si="55">G436-H436</f>
         <v>30000</v>
       </c>
       <c r="J436" s="58"/>
     </row>
-    <row r="437" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>735</v>
       </c>
@@ -18943,7 +18975,7 @@
       </c>
       <c r="J437" s="58"/>
     </row>
-    <row r="438" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>736</v>
       </c>
@@ -18972,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>738</v>
       </c>
@@ -19001,7 +19033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>739</v>
       </c>
@@ -19026,12 +19058,12 @@
         <v>7475000</v>
       </c>
       <c r="I440" s="58">
-        <f t="shared" ref="I440:J442" si="56">G440-H440</f>
+        <f t="shared" ref="I440:I442" si="56">G440-H440</f>
         <v>25000</v>
       </c>
       <c r="J440" s="58"/>
     </row>
-    <row r="441" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>740</v>
       </c>
@@ -19061,7 +19093,7 @@
       </c>
       <c r="J441" s="58"/>
     </row>
-    <row r="442" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>742</v>
       </c>
@@ -19091,7 +19123,7 @@
       </c>
       <c r="J442" s="58"/>
     </row>
-    <row r="443" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>743</v>
       </c>
@@ -19120,7 +19152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>744</v>
       </c>
@@ -19150,7 +19182,7 @@
       </c>
       <c r="J444" s="58"/>
     </row>
-    <row r="445" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>746</v>
       </c>
@@ -19179,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>748</v>
       </c>
@@ -19208,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>749</v>
       </c>
@@ -19233,12 +19265,12 @@
         <v>4375000</v>
       </c>
       <c r="I447" s="58">
-        <f t="shared" ref="I447:J448" si="57">G447-H447</f>
+        <f t="shared" ref="I447:I448" si="57">G447-H447</f>
         <v>125000</v>
       </c>
       <c r="J447" s="58"/>
     </row>
-    <row r="448" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>750</v>
       </c>
@@ -19268,7 +19300,7 @@
       </c>
       <c r="J448" s="58"/>
     </row>
-    <row r="449" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>751</v>
       </c>
@@ -19297,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>753</v>
       </c>
@@ -19326,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>754</v>
       </c>
@@ -19356,7 +19388,7 @@
       </c>
       <c r="J451" s="58"/>
     </row>
-    <row r="452" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>756</v>
       </c>
@@ -19385,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>757</v>
       </c>
@@ -19410,12 +19442,12 @@
         <v>14755000</v>
       </c>
       <c r="I453" s="58">
-        <f t="shared" ref="I453:J454" si="58">G453-H453</f>
+        <f t="shared" ref="I453:I454" si="58">G453-H453</f>
         <v>1745000</v>
       </c>
       <c r="J453" s="58"/>
     </row>
-    <row r="454" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>758</v>
       </c>
@@ -19445,7 +19477,7 @@
       </c>
       <c r="J454" s="58"/>
     </row>
-    <row r="455" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>759</v>
       </c>
@@ -19474,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>760</v>
       </c>
@@ -19504,7 +19536,7 @@
       </c>
       <c r="J456" s="58"/>
     </row>
-    <row r="457" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>762</v>
       </c>
@@ -19533,7 +19565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>763</v>
       </c>
@@ -19562,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>764</v>
       </c>
@@ -19592,7 +19624,7 @@
       </c>
       <c r="J459" s="58"/>
     </row>
-    <row r="460" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>765</v>
       </c>
@@ -19618,10 +19650,10 @@
       </c>
       <c r="J460" s="52">
         <f>J461</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>194540000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>767</v>
       </c>
@@ -19651,10 +19683,10 @@
       </c>
       <c r="J461" s="53">
         <f>J462</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>194540000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>771</v>
       </c>
@@ -19684,10 +19716,10 @@
       </c>
       <c r="J462" s="54">
         <f>SUM(J463,J516)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>194540000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>774</v>
       </c>
@@ -19713,10 +19745,10 @@
       </c>
       <c r="J463" s="55">
         <f>SUM(J464,J484,J507)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>190040000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>776</v>
       </c>
@@ -19742,10 +19774,10 @@
       </c>
       <c r="J464" s="56">
         <f>SUM(J465,J471,J474,J477,J479,J481)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>126100000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>778</v>
       </c>
@@ -19771,10 +19803,10 @@
       </c>
       <c r="J465" s="57">
         <f>SUM(J466:J470)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>104100000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>779</v>
       </c>
@@ -19799,12 +19831,12 @@
         <v>4270000</v>
       </c>
       <c r="I466" s="58">
-        <f t="shared" ref="I466:J470" si="59">G466-H466</f>
+        <f t="shared" ref="I466:I470" si="59">G466-H466</f>
         <v>23730000</v>
       </c>
       <c r="J466" s="58"/>
     </row>
-    <row r="467" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>781</v>
       </c>
@@ -19834,7 +19866,7 @@
       </c>
       <c r="J467" s="58"/>
     </row>
-    <row r="468" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>783</v>
       </c>
@@ -19862,9 +19894,11 @@
         <f t="shared" si="59"/>
         <v>33600000</v>
       </c>
-      <c r="J468" s="58"/>
-    </row>
-    <row r="469" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J468" s="58">
+        <v>33600000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>785</v>
       </c>
@@ -19892,9 +19926,11 @@
         <f t="shared" si="59"/>
         <v>22500000</v>
       </c>
-      <c r="J469" s="58"/>
-    </row>
-    <row r="470" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J469" s="58">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>787</v>
       </c>
@@ -19922,9 +19958,11 @@
         <f t="shared" si="59"/>
         <v>48000000</v>
       </c>
-      <c r="J470" s="58"/>
-    </row>
-    <row r="471" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J470" s="58">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>789</v>
       </c>
@@ -19953,7 +19991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>790</v>
       </c>
@@ -19978,12 +20016,12 @@
         <v>304167892</v>
       </c>
       <c r="I472" s="58">
-        <f t="shared" ref="I472:J473" si="60">G472-H472</f>
+        <f t="shared" ref="I472:I473" si="60">G472-H472</f>
         <v>815482108</v>
       </c>
       <c r="J472" s="58"/>
     </row>
-    <row r="473" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>793</v>
       </c>
@@ -20013,7 +20051,7 @@
       </c>
       <c r="J473" s="58"/>
     </row>
-    <row r="474" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>795</v>
       </c>
@@ -20042,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>796</v>
       </c>
@@ -20067,12 +20105,12 @@
         <v>5785000</v>
       </c>
       <c r="I475" s="58">
-        <f t="shared" ref="I475:J476" si="61">G475-H475</f>
+        <f t="shared" ref="I475:I476" si="61">G475-H475</f>
         <v>4215000</v>
       </c>
       <c r="J475" s="58"/>
     </row>
-    <row r="476" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>797</v>
       </c>
@@ -20102,7 +20140,7 @@
       </c>
       <c r="J476" s="58"/>
     </row>
-    <row r="477" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>798</v>
       </c>
@@ -20131,7 +20169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>799</v>
       </c>
@@ -20161,7 +20199,7 @@
       </c>
       <c r="J478" s="58"/>
     </row>
-    <row r="479" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>800</v>
       </c>
@@ -20190,7 +20228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>801</v>
       </c>
@@ -20220,7 +20258,7 @@
       </c>
       <c r="J480" s="58"/>
     </row>
-    <row r="481" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>803</v>
       </c>
@@ -20246,10 +20284,10 @@
       </c>
       <c r="J481" s="57">
         <f>SUM(J482:J483)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>804</v>
       </c>
@@ -20274,12 +20312,14 @@
         <v>20535000</v>
       </c>
       <c r="I482" s="58">
-        <f t="shared" ref="I482:J483" si="62">G482-H482</f>
+        <f t="shared" ref="I482:I483" si="62">G482-H482</f>
         <v>34465000</v>
       </c>
-      <c r="J482" s="58"/>
-    </row>
-    <row r="483" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J482" s="58">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>806</v>
       </c>
@@ -20309,7 +20349,7 @@
       </c>
       <c r="J483" s="58"/>
     </row>
-    <row r="484" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>808</v>
       </c>
@@ -20335,10 +20375,10 @@
       </c>
       <c r="J484" s="56">
         <f>SUM(J485,J491,J495,J498,J500,J503)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>63940000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>810</v>
       </c>
@@ -20364,10 +20404,10 @@
       </c>
       <c r="J485" s="57">
         <f>SUM(J486:J490)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>50940000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>811</v>
       </c>
@@ -20392,12 +20432,12 @@
         <v>1997950</v>
       </c>
       <c r="I486" s="58">
-        <f t="shared" ref="I486:J490" si="63">G486-H486</f>
+        <f t="shared" ref="I486:I490" si="63">G486-H486</f>
         <v>19002050</v>
       </c>
       <c r="J486" s="58"/>
     </row>
-    <row r="487" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>812</v>
       </c>
@@ -20425,9 +20465,11 @@
         <f t="shared" si="63"/>
         <v>9187450</v>
       </c>
-      <c r="J487" s="58"/>
-    </row>
-    <row r="488" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J487" s="58">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>813</v>
       </c>
@@ -20455,9 +20497,11 @@
         <f t="shared" si="63"/>
         <v>30240000</v>
       </c>
-      <c r="J488" s="58"/>
-    </row>
-    <row r="489" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J488" s="58">
+        <v>30240000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>815</v>
       </c>
@@ -20485,9 +20529,11 @@
         <f t="shared" si="63"/>
         <v>16200000</v>
       </c>
-      <c r="J489" s="58"/>
-    </row>
-    <row r="490" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J489" s="58">
+        <v>16200000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>817</v>
       </c>
@@ -20517,7 +20563,7 @@
       </c>
       <c r="J490" s="58"/>
     </row>
-    <row r="491" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>818</v>
       </c>
@@ -20546,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>819</v>
       </c>
@@ -20571,12 +20617,12 @@
         <v>4964878398</v>
       </c>
       <c r="I492" s="58">
-        <f t="shared" ref="I492:J494" si="64">G492-H492</f>
+        <f t="shared" ref="I492:I494" si="64">G492-H492</f>
         <v>1282126602</v>
       </c>
       <c r="J492" s="58"/>
     </row>
-    <row r="493" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>820</v>
       </c>
@@ -20606,7 +20652,7 @@
       </c>
       <c r="J493" s="58"/>
     </row>
-    <row r="494" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>822</v>
       </c>
@@ -20636,7 +20682,7 @@
       </c>
       <c r="J494" s="58"/>
     </row>
-    <row r="495" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>824</v>
       </c>
@@ -20665,7 +20711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>825</v>
       </c>
@@ -20690,12 +20736,12 @@
         <v>5710000</v>
       </c>
       <c r="I496" s="58">
-        <f t="shared" ref="I496:J497" si="65">G496-H496</f>
+        <f t="shared" ref="I496:I497" si="65">G496-H496</f>
         <v>6290000</v>
       </c>
       <c r="J496" s="58"/>
     </row>
-    <row r="497" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>826</v>
       </c>
@@ -20725,7 +20771,7 @@
       </c>
       <c r="J497" s="58"/>
     </row>
-    <row r="498" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>827</v>
       </c>
@@ -20754,7 +20800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>828</v>
       </c>
@@ -20784,7 +20830,7 @@
       </c>
       <c r="J499" s="58"/>
     </row>
-    <row r="500" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>829</v>
       </c>
@@ -20810,10 +20856,10 @@
       </c>
       <c r="J500" s="57">
         <f>SUM(J501:J502)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>830</v>
       </c>
@@ -20838,12 +20884,14 @@
         <v>66602254</v>
       </c>
       <c r="I501" s="58">
-        <f t="shared" ref="I501:J502" si="66">G501-H501</f>
+        <f t="shared" ref="I501:I502" si="66">G501-H501</f>
         <v>89397746</v>
       </c>
-      <c r="J501" s="58"/>
-    </row>
-    <row r="502" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J501" s="58">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>831</v>
       </c>
@@ -20873,7 +20921,7 @@
       </c>
       <c r="J502" s="58"/>
     </row>
-    <row r="503" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>832</v>
       </c>
@@ -20902,7 +20950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>834</v>
       </c>
@@ -20928,12 +20976,12 @@
         <v>0</v>
       </c>
       <c r="I504" s="58">
-        <f t="shared" ref="I504:J506" si="67">G504-H504</f>
+        <f t="shared" ref="I504:I506" si="67">G504-H504</f>
         <v>133164000</v>
       </c>
       <c r="J504" s="58"/>
     </row>
-    <row r="505" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>837</v>
       </c>
@@ -20963,7 +21011,7 @@
       </c>
       <c r="J505" s="58"/>
     </row>
-    <row r="506" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>839</v>
       </c>
@@ -20993,7 +21041,7 @@
       </c>
       <c r="J506" s="58"/>
     </row>
-    <row r="507" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>841</v>
       </c>
@@ -21022,7 +21070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>843</v>
       </c>
@@ -21051,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>844</v>
       </c>
@@ -21076,12 +21124,12 @@
         <v>0</v>
       </c>
       <c r="I509" s="58">
-        <f t="shared" ref="I509:J511" si="68">G509-H509</f>
+        <f t="shared" ref="I509:I511" si="68">G509-H509</f>
         <v>4500000</v>
       </c>
       <c r="J509" s="58"/>
     </row>
-    <row r="510" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>846</v>
       </c>
@@ -21111,7 +21159,7 @@
       </c>
       <c r="J510" s="58"/>
     </row>
-    <row r="511" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>847</v>
       </c>
@@ -21141,7 +21189,7 @@
       </c>
       <c r="J511" s="58"/>
     </row>
-    <row r="512" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>848</v>
       </c>
@@ -21170,7 +21218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" s="21" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>849</v>
       </c>
@@ -21200,7 +21248,7 @@
       </c>
       <c r="J513" s="58"/>
     </row>
-    <row r="514" spans="1:10" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" s="21" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>851</v>
       </c>
@@ -21229,7 +21277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>853</v>
       </c>
@@ -21259,7 +21307,7 @@
       </c>
       <c r="J515" s="58"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>855</v>
       </c>
@@ -21285,10 +21333,10 @@
       </c>
       <c r="J516" s="55">
         <f>J517</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>857</v>
       </c>
@@ -21314,10 +21362,10 @@
       </c>
       <c r="J517" s="56">
         <f>SUM(J518,J521)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>858</v>
       </c>
@@ -21343,10 +21391,10 @@
       </c>
       <c r="J518" s="57">
         <f>SUM(J519:J520)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>859</v>
       </c>
@@ -21371,12 +21419,14 @@
         <v>8766700</v>
       </c>
       <c r="I519" s="58">
-        <f t="shared" ref="I519:J520" si="69">G519-H519</f>
+        <f t="shared" ref="I519:I520" si="69">G519-H519</f>
         <v>9233300</v>
       </c>
-      <c r="J519" s="58"/>
-    </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J519" s="58">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>860</v>
       </c>
@@ -21406,7 +21456,7 @@
       </c>
       <c r="J520" s="58"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>861</v>
       </c>
@@ -21435,7 +21485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>862</v>
       </c>
@@ -21460,12 +21510,12 @@
         <v>5820000</v>
       </c>
       <c r="I522" s="58">
-        <f t="shared" ref="I522:J523" si="70">G522-H522</f>
+        <f t="shared" ref="I522:I523" si="70">G522-H522</f>
         <v>6180000</v>
       </c>
       <c r="J522" s="58"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>863</v>
       </c>
@@ -21495,7 +21545,7 @@
       </c>
       <c r="J523" s="58"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="46"/>
@@ -21504,7 +21554,7 @@
       <c r="F524" s="48"/>
       <c r="G524" s="48"/>
     </row>
-    <row r="525" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="46"/>
@@ -21515,7 +21565,7 @@
       <c r="F525" s="48"/>
       <c r="G525" s="48"/>
     </row>
-    <row r="526" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="46"/>
@@ -21526,7 +21576,7 @@
       <c r="F526" s="48"/>
       <c r="G526" s="48"/>
     </row>
-    <row r="527" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="46"/>
@@ -21535,7 +21585,7 @@
       <c r="F527" s="48"/>
       <c r="G527" s="48"/>
     </row>
-    <row r="528" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="46"/>
@@ -21544,7 +21594,7 @@
       <c r="F528" s="48"/>
       <c r="G528" s="48"/>
     </row>
-    <row r="529" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="46"/>
@@ -21553,7 +21603,7 @@
       <c r="F529" s="48"/>
       <c r="G529" s="48"/>
     </row>
-    <row r="530" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="46"/>
@@ -21562,7 +21612,7 @@
       <c r="F530" s="48"/>
       <c r="G530" s="48"/>
     </row>
-    <row r="531" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="46"/>
@@ -21573,7 +21623,7 @@
       <c r="F531" s="48"/>
       <c r="G531" s="48"/>
     </row>
-    <row r="532" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="46"/>
@@ -21584,7 +21634,7 @@
       <c r="F532" s="48"/>
       <c r="G532" s="48"/>
     </row>
-    <row r="533" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="46"/>
@@ -21593,7 +21643,7 @@
       <c r="F533" s="48"/>
       <c r="G533" s="48"/>
     </row>
-    <row r="534" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="46"/>
@@ -21602,7 +21652,7 @@
       <c r="F534" s="48"/>
       <c r="G534" s="48"/>
     </row>
-    <row r="535" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="46"/>
@@ -21611,7 +21661,7 @@
       <c r="F535" s="48"/>
       <c r="G535" s="48"/>
     </row>
-    <row r="536" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="46"/>
@@ -21620,7 +21670,7 @@
       <c r="F536" s="48"/>
       <c r="G536" s="48"/>
     </row>
-    <row r="537" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="46"/>
@@ -21629,7 +21679,7 @@
       <c r="F537" s="48"/>
       <c r="G537" s="48"/>
     </row>
-    <row r="538" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="46"/>
@@ -21638,7 +21688,7 @@
       <c r="F538" s="48"/>
       <c r="G538" s="48"/>
     </row>
-    <row r="539" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="46"/>
@@ -21647,7 +21697,7 @@
       <c r="F539" s="48"/>
       <c r="G539" s="48"/>
     </row>
-    <row r="540" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="46"/>
@@ -21656,7 +21706,7 @@
       <c r="F540" s="48"/>
       <c r="G540" s="48"/>
     </row>
-    <row r="541" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="46"/>
@@ -21665,7 +21715,7 @@
       <c r="F541" s="48"/>
       <c r="G541" s="48"/>
     </row>
-    <row r="542" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="46"/>
@@ -21674,7 +21724,7 @@
       <c r="F542" s="48"/>
       <c r="G542" s="48"/>
     </row>
-    <row r="543" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="46"/>
@@ -21683,7 +21733,7 @@
       <c r="F543" s="48"/>
       <c r="G543" s="48"/>
     </row>
-    <row r="544" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="46"/>
@@ -21692,7 +21742,7 @@
       <c r="F544" s="48"/>
       <c r="G544" s="48"/>
     </row>
-    <row r="545" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="46"/>
@@ -21701,7 +21751,7 @@
       <c r="F545" s="48"/>
       <c r="G545" s="48"/>
     </row>
-    <row r="546" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="46"/>
@@ -21710,7 +21760,7 @@
       <c r="F546" s="48"/>
       <c r="G546" s="48"/>
     </row>
-    <row r="547" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="46"/>
@@ -21719,7 +21769,7 @@
       <c r="F547" s="48"/>
       <c r="G547" s="48"/>
     </row>
-    <row r="548" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="46"/>
@@ -21728,7 +21778,7 @@
       <c r="F548" s="48"/>
       <c r="G548" s="48"/>
     </row>
-    <row r="549" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="46"/>
@@ -21737,7 +21787,7 @@
       <c r="F549" s="48"/>
       <c r="G549" s="48"/>
     </row>
-    <row r="550" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="46"/>
@@ -21746,7 +21796,7 @@
       <c r="F550" s="48"/>
       <c r="G550" s="48"/>
     </row>
-    <row r="551" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="46"/>
@@ -21755,7 +21805,7 @@
       <c r="F551" s="48"/>
       <c r="G551" s="48"/>
     </row>
-    <row r="552" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="46"/>
@@ -21764,7 +21814,7 @@
       <c r="F552" s="48"/>
       <c r="G552" s="48"/>
     </row>
-    <row r="553" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="46"/>
@@ -21773,7 +21823,7 @@
       <c r="F553" s="48"/>
       <c r="G553" s="48"/>
     </row>
-    <row r="554" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="46"/>
@@ -21782,7 +21832,7 @@
       <c r="F554" s="48"/>
       <c r="G554" s="48"/>
     </row>
-    <row r="555" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="46"/>
@@ -21791,7 +21841,7 @@
       <c r="F555" s="48"/>
       <c r="G555" s="48"/>
     </row>
-    <row r="556" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="46"/>
@@ -21800,7 +21850,7 @@
       <c r="F556" s="48"/>
       <c r="G556" s="48"/>
     </row>
-    <row r="557" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="46"/>
@@ -21809,7 +21859,7 @@
       <c r="F557" s="48"/>
       <c r="G557" s="48"/>
     </row>
-    <row r="558" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="46"/>
@@ -21818,7 +21868,7 @@
       <c r="F558" s="48"/>
       <c r="G558" s="48"/>
     </row>
-    <row r="559" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="46"/>
@@ -21827,7 +21877,7 @@
       <c r="F559" s="48"/>
       <c r="G559" s="48"/>
     </row>
-    <row r="560" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="46"/>
@@ -21836,7 +21886,7 @@
       <c r="F560" s="48"/>
       <c r="G560" s="48"/>
     </row>
-    <row r="561" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="46"/>
@@ -21845,7 +21895,7 @@
       <c r="F561" s="48"/>
       <c r="G561" s="48"/>
     </row>
-    <row r="562" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="46"/>
@@ -21854,7 +21904,7 @@
       <c r="F562" s="48"/>
       <c r="G562" s="48"/>
     </row>
-    <row r="563" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="46"/>
@@ -21863,7 +21913,7 @@
       <c r="F563" s="48"/>
       <c r="G563" s="48"/>
     </row>
-    <row r="564" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="46"/>
@@ -21872,7 +21922,7 @@
       <c r="F564" s="48"/>
       <c r="G564" s="48"/>
     </row>
-    <row r="565" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="46"/>
@@ -21881,7 +21931,7 @@
       <c r="F565" s="48"/>
       <c r="G565" s="48"/>
     </row>
-    <row r="566" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="46"/>
@@ -21890,7 +21940,7 @@
       <c r="F566" s="48"/>
       <c r="G566" s="48"/>
     </row>
-    <row r="567" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="46"/>
@@ -21899,7 +21949,7 @@
       <c r="F567" s="48"/>
       <c r="G567" s="48"/>
     </row>
-    <row r="568" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="46"/>
@@ -21908,7 +21958,7 @@
       <c r="F568" s="48"/>
       <c r="G568" s="48"/>
     </row>
-    <row r="569" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="46"/>
@@ -21917,7 +21967,7 @@
       <c r="F569" s="48"/>
       <c r="G569" s="48"/>
     </row>
-    <row r="570" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="46"/>
@@ -21926,7 +21976,7 @@
       <c r="F570" s="48"/>
       <c r="G570" s="48"/>
     </row>
-    <row r="571" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="46"/>
@@ -21935,7 +21985,7 @@
       <c r="F571" s="48"/>
       <c r="G571" s="48"/>
     </row>
-    <row r="572" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="46"/>
@@ -21944,7 +21994,7 @@
       <c r="F572" s="48"/>
       <c r="G572" s="48"/>
     </row>
-    <row r="573" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="46"/>
@@ -21953,7 +22003,7 @@
       <c r="F573" s="48"/>
       <c r="G573" s="48"/>
     </row>
-    <row r="574" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="46"/>
@@ -21962,7 +22012,7 @@
       <c r="F574" s="48"/>
       <c r="G574" s="48"/>
     </row>
-    <row r="575" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="46"/>
@@ -21971,7 +22021,7 @@
       <c r="F575" s="48"/>
       <c r="G575" s="48"/>
     </row>
-    <row r="576" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="46"/>
@@ -21980,7 +22030,7 @@
       <c r="F576" s="48"/>
       <c r="G576" s="48"/>
     </row>
-    <row r="577" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="46"/>
@@ -21989,7 +22039,7 @@
       <c r="F577" s="48"/>
       <c r="G577" s="48"/>
     </row>
-    <row r="578" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="46"/>
@@ -21998,7 +22048,7 @@
       <c r="F578" s="48"/>
       <c r="G578" s="48"/>
     </row>
-    <row r="579" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="46"/>
@@ -22007,7 +22057,7 @@
       <c r="F579" s="48"/>
       <c r="G579" s="48"/>
     </row>
-    <row r="580" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="46"/>
@@ -22016,7 +22066,7 @@
       <c r="F580" s="48"/>
       <c r="G580" s="48"/>
     </row>
-    <row r="581" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="46"/>
@@ -22025,7 +22075,7 @@
       <c r="F581" s="48"/>
       <c r="G581" s="48"/>
     </row>
-    <row r="582" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="46"/>
@@ -22034,7 +22084,7 @@
       <c r="F582" s="48"/>
       <c r="G582" s="48"/>
     </row>
-    <row r="583" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="46"/>
@@ -22043,7 +22093,7 @@
       <c r="F583" s="48"/>
       <c r="G583" s="48"/>
     </row>
-    <row r="584" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="46"/>
@@ -22052,7 +22102,7 @@
       <c r="F584" s="48"/>
       <c r="G584" s="48"/>
     </row>
-    <row r="585" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="46"/>
@@ -22061,7 +22111,7 @@
       <c r="F585" s="48"/>
       <c r="G585" s="48"/>
     </row>
-    <row r="586" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="46"/>
@@ -22070,7 +22120,7 @@
       <c r="F586" s="48"/>
       <c r="G586" s="48"/>
     </row>
-    <row r="587" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="46"/>
@@ -22079,7 +22129,7 @@
       <c r="F587" s="48"/>
       <c r="G587" s="48"/>
     </row>
-    <row r="588" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="46"/>
@@ -22088,7 +22138,7 @@
       <c r="F588" s="48"/>
       <c r="G588" s="48"/>
     </row>
-    <row r="589" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="46"/>
@@ -22097,7 +22147,7 @@
       <c r="F589" s="48"/>
       <c r="G589" s="48"/>
     </row>
-    <row r="590" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="46"/>
@@ -22106,7 +22156,7 @@
       <c r="F590" s="48"/>
       <c r="G590" s="48"/>
     </row>
-    <row r="591" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="46"/>
@@ -22115,7 +22165,7 @@
       <c r="F591" s="48"/>
       <c r="G591" s="48"/>
     </row>
-    <row r="592" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="46"/>
@@ -22124,7 +22174,7 @@
       <c r="F592" s="48"/>
       <c r="G592" s="48"/>
     </row>
-    <row r="593" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="46"/>
@@ -22133,7 +22183,7 @@
       <c r="F593" s="48"/>
       <c r="G593" s="48"/>
     </row>
-    <row r="594" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="46"/>
@@ -22142,7 +22192,7 @@
       <c r="F594" s="48"/>
       <c r="G594" s="48"/>
     </row>
-    <row r="595" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="46"/>
@@ -22151,7 +22201,7 @@
       <c r="F595" s="48"/>
       <c r="G595" s="48"/>
     </row>
-    <row r="596" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="46"/>
@@ -22160,7 +22210,7 @@
       <c r="F596" s="48"/>
       <c r="G596" s="48"/>
     </row>
-    <row r="597" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="46"/>
@@ -22169,7 +22219,7 @@
       <c r="F597" s="48"/>
       <c r="G597" s="48"/>
     </row>
-    <row r="598" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="46"/>
@@ -22178,7 +22228,7 @@
       <c r="F598" s="48"/>
       <c r="G598" s="48"/>
     </row>
-    <row r="599" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="46"/>
@@ -22187,7 +22237,7 @@
       <c r="F599" s="48"/>
       <c r="G599" s="48"/>
     </row>
-    <row r="600" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="46"/>
@@ -22196,7 +22246,7 @@
       <c r="F600" s="48"/>
       <c r="G600" s="48"/>
     </row>
-    <row r="601" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="46"/>
@@ -22205,7 +22255,7 @@
       <c r="F601" s="48"/>
       <c r="G601" s="48"/>
     </row>
-    <row r="602" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="46"/>
@@ -22214,7 +22264,7 @@
       <c r="F602" s="48"/>
       <c r="G602" s="48"/>
     </row>
-    <row r="603" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="46"/>
@@ -22223,7 +22273,7 @@
       <c r="F603" s="48"/>
       <c r="G603" s="48"/>
     </row>
-    <row r="604" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="46"/>
@@ -22232,7 +22282,7 @@
       <c r="F604" s="48"/>
       <c r="G604" s="48"/>
     </row>
-    <row r="605" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="46"/>
@@ -22241,7 +22291,7 @@
       <c r="F605" s="48"/>
       <c r="G605" s="48"/>
     </row>
-    <row r="606" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="46"/>
@@ -22250,7 +22300,7 @@
       <c r="F606" s="48"/>
       <c r="G606" s="48"/>
     </row>
-    <row r="607" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="46"/>
@@ -22259,7 +22309,7 @@
       <c r="F607" s="48"/>
       <c r="G607" s="48"/>
     </row>
-    <row r="608" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="46"/>
@@ -22268,7 +22318,7 @@
       <c r="F608" s="48"/>
       <c r="G608" s="48"/>
     </row>
-    <row r="609" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="46"/>
@@ -22277,7 +22327,7 @@
       <c r="F609" s="48"/>
       <c r="G609" s="48"/>
     </row>
-    <row r="610" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="46"/>
@@ -22286,7 +22336,7 @@
       <c r="F610" s="48"/>
       <c r="G610" s="48"/>
     </row>
-    <row r="611" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="46"/>
@@ -22295,7 +22345,7 @@
       <c r="F611" s="48"/>
       <c r="G611" s="48"/>
     </row>
-    <row r="612" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="46"/>
@@ -22304,7 +22354,7 @@
       <c r="F612" s="48"/>
       <c r="G612" s="48"/>
     </row>
-    <row r="613" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="46"/>
@@ -22313,7 +22363,7 @@
       <c r="F613" s="48"/>
       <c r="G613" s="48"/>
     </row>
-    <row r="614" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="46"/>
@@ -22322,7 +22372,7 @@
       <c r="F614" s="48"/>
       <c r="G614" s="48"/>
     </row>
-    <row r="615" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="46"/>
@@ -22331,7 +22381,7 @@
       <c r="F615" s="48"/>
       <c r="G615" s="48"/>
     </row>
-    <row r="616" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="46"/>
@@ -22340,7 +22390,7 @@
       <c r="F616" s="48"/>
       <c r="G616" s="48"/>
     </row>
-    <row r="617" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="46"/>
@@ -22349,7 +22399,7 @@
       <c r="F617" s="48"/>
       <c r="G617" s="48"/>
     </row>
-    <row r="618" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="46"/>
@@ -22358,7 +22408,7 @@
       <c r="F618" s="48"/>
       <c r="G618" s="48"/>
     </row>
-    <row r="619" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="46"/>
@@ -22367,7 +22417,7 @@
       <c r="F619" s="48"/>
       <c r="G619" s="48"/>
     </row>
-    <row r="620" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="46"/>
@@ -22376,7 +22426,7 @@
       <c r="F620" s="48"/>
       <c r="G620" s="48"/>
     </row>
-    <row r="621" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="46"/>
@@ -22385,7 +22435,7 @@
       <c r="F621" s="48"/>
       <c r="G621" s="48"/>
     </row>
-    <row r="622" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="46"/>
@@ -22394,7 +22444,7 @@
       <c r="F622" s="48"/>
       <c r="G622" s="48"/>
     </row>
-    <row r="623" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="46"/>
@@ -22403,7 +22453,7 @@
       <c r="F623" s="48"/>
       <c r="G623" s="48"/>
     </row>
-    <row r="624" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="46"/>
@@ -22412,7 +22462,7 @@
       <c r="F624" s="48"/>
       <c r="G624" s="48"/>
     </row>
-    <row r="625" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="46"/>
@@ -22421,7 +22471,7 @@
       <c r="F625" s="48"/>
       <c r="G625" s="48"/>
     </row>
-    <row r="626" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="46"/>
@@ -22430,7 +22480,7 @@
       <c r="F626" s="48"/>
       <c r="G626" s="48"/>
     </row>
-    <row r="627" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="46"/>
@@ -22439,7 +22489,7 @@
       <c r="F627" s="48"/>
       <c r="G627" s="48"/>
     </row>
-    <row r="628" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="46"/>
@@ -22448,7 +22498,7 @@
       <c r="F628" s="48"/>
       <c r="G628" s="48"/>
     </row>
-    <row r="629" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="46"/>
@@ -22457,7 +22507,7 @@
       <c r="F629" s="48"/>
       <c r="G629" s="48"/>
     </row>
-    <row r="630" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="46"/>
@@ -22466,7 +22516,7 @@
       <c r="F630" s="48"/>
       <c r="G630" s="48"/>
     </row>
-    <row r="631" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="46"/>
@@ -22475,7 +22525,7 @@
       <c r="F631" s="48"/>
       <c r="G631" s="48"/>
     </row>
-    <row r="632" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="46"/>
@@ -22484,7 +22534,7 @@
       <c r="F632" s="48"/>
       <c r="G632" s="48"/>
     </row>
-    <row r="633" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="46"/>
@@ -22493,7 +22543,7 @@
       <c r="F633" s="48"/>
       <c r="G633" s="48"/>
     </row>
-    <row r="634" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="46"/>
@@ -22502,7 +22552,7 @@
       <c r="F634" s="48"/>
       <c r="G634" s="48"/>
     </row>
-    <row r="635" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="46"/>
@@ -22511,7 +22561,7 @@
       <c r="F635" s="48"/>
       <c r="G635" s="48"/>
     </row>
-    <row r="636" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="46"/>
@@ -22520,7 +22570,7 @@
       <c r="F636" s="48"/>
       <c r="G636" s="48"/>
     </row>
-    <row r="637" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="46"/>
@@ -22529,7 +22579,7 @@
       <c r="F637" s="48"/>
       <c r="G637" s="48"/>
     </row>
-    <row r="638" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="46"/>
@@ -22538,7 +22588,7 @@
       <c r="F638" s="48"/>
       <c r="G638" s="48"/>
     </row>
-    <row r="639" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="46"/>
@@ -22547,7 +22597,7 @@
       <c r="F639" s="48"/>
       <c r="G639" s="48"/>
     </row>
-    <row r="640" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="46"/>
@@ -22556,7 +22606,7 @@
       <c r="F640" s="48"/>
       <c r="G640" s="48"/>
     </row>
-    <row r="641" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="46"/>
@@ -22565,7 +22615,7 @@
       <c r="F641" s="48"/>
       <c r="G641" s="48"/>
     </row>
-    <row r="642" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="46"/>
@@ -22574,7 +22624,7 @@
       <c r="F642" s="48"/>
       <c r="G642" s="48"/>
     </row>
-    <row r="643" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="46"/>
@@ -22583,7 +22633,7 @@
       <c r="F643" s="48"/>
       <c r="G643" s="48"/>
     </row>
-    <row r="644" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="46"/>
@@ -22592,7 +22642,7 @@
       <c r="F644" s="48"/>
       <c r="G644" s="48"/>
     </row>
-    <row r="645" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="46"/>
@@ -22601,7 +22651,7 @@
       <c r="F645" s="48"/>
       <c r="G645" s="48"/>
     </row>
-    <row r="646" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="46"/>
@@ -22610,7 +22660,7 @@
       <c r="F646" s="48"/>
       <c r="G646" s="48"/>
     </row>
-    <row r="647" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="46"/>
@@ -22619,7 +22669,7 @@
       <c r="F647" s="48"/>
       <c r="G647" s="48"/>
     </row>
-    <row r="648" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="46"/>
@@ -22628,7 +22678,7 @@
       <c r="F648" s="48"/>
       <c r="G648" s="48"/>
     </row>
-    <row r="649" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="46"/>
@@ -22637,7 +22687,7 @@
       <c r="F649" s="48"/>
       <c r="G649" s="48"/>
     </row>
-    <row r="650" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="46"/>
@@ -22646,7 +22696,7 @@
       <c r="F650" s="48"/>
       <c r="G650" s="48"/>
     </row>
-    <row r="651" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="46"/>
@@ -22655,7 +22705,7 @@
       <c r="F651" s="48"/>
       <c r="G651" s="48"/>
     </row>
-    <row r="652" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="46"/>
@@ -22664,7 +22714,7 @@
       <c r="F652" s="48"/>
       <c r="G652" s="48"/>
     </row>
-    <row r="653" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="46"/>
@@ -22673,7 +22723,7 @@
       <c r="F653" s="48"/>
       <c r="G653" s="48"/>
     </row>
-    <row r="654" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="46"/>
@@ -22682,7 +22732,7 @@
       <c r="F654" s="48"/>
       <c r="G654" s="48"/>
     </row>
-    <row r="655" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="46"/>
@@ -22691,7 +22741,7 @@
       <c r="F655" s="48"/>
       <c r="G655" s="48"/>
     </row>
-    <row r="656" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="46"/>
@@ -22700,7 +22750,7 @@
       <c r="F656" s="48"/>
       <c r="G656" s="48"/>
     </row>
-    <row r="657" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="46"/>
@@ -22709,7 +22759,7 @@
       <c r="F657" s="48"/>
       <c r="G657" s="48"/>
     </row>
-    <row r="658" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="46"/>
@@ -22718,7 +22768,7 @@
       <c r="F658" s="48"/>
       <c r="G658" s="48"/>
     </row>
-    <row r="659" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="46"/>
@@ -22727,7 +22777,7 @@
       <c r="F659" s="48"/>
       <c r="G659" s="48"/>
     </row>
-    <row r="660" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="46"/>
@@ -22736,7 +22786,7 @@
       <c r="F660" s="48"/>
       <c r="G660" s="48"/>
     </row>
-    <row r="661" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="46"/>
@@ -22745,7 +22795,7 @@
       <c r="F661" s="48"/>
       <c r="G661" s="48"/>
     </row>
-    <row r="662" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="46"/>
@@ -22754,7 +22804,7 @@
       <c r="F662" s="48"/>
       <c r="G662" s="48"/>
     </row>
-    <row r="663" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="46"/>
@@ -22763,7 +22813,7 @@
       <c r="F663" s="48"/>
       <c r="G663" s="48"/>
     </row>
-    <row r="664" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="46"/>
@@ -22772,7 +22822,7 @@
       <c r="F664" s="48"/>
       <c r="G664" s="48"/>
     </row>
-    <row r="665" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="46"/>
@@ -22781,7 +22831,7 @@
       <c r="F665" s="48"/>
       <c r="G665" s="48"/>
     </row>
-    <row r="666" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="46"/>
@@ -22790,7 +22840,7 @@
       <c r="F666" s="48"/>
       <c r="G666" s="48"/>
     </row>
-    <row r="667" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="46"/>
@@ -22799,7 +22849,7 @@
       <c r="F667" s="48"/>
       <c r="G667" s="48"/>
     </row>
-    <row r="668" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="46"/>
@@ -22808,7 +22858,7 @@
       <c r="F668" s="48"/>
       <c r="G668" s="48"/>
     </row>
-    <row r="669" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="46"/>
@@ -22817,7 +22867,7 @@
       <c r="F669" s="48"/>
       <c r="G669" s="48"/>
     </row>
-    <row r="670" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="46"/>
@@ -22826,7 +22876,7 @@
       <c r="F670" s="48"/>
       <c r="G670" s="48"/>
     </row>
-    <row r="671" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="46"/>
@@ -22835,7 +22885,7 @@
       <c r="F671" s="48"/>
       <c r="G671" s="48"/>
     </row>
-    <row r="672" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="46"/>
@@ -22844,7 +22894,7 @@
       <c r="F672" s="48"/>
       <c r="G672" s="48"/>
     </row>
-    <row r="673" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="46"/>
@@ -22853,7 +22903,7 @@
       <c r="F673" s="48"/>
       <c r="G673" s="48"/>
     </row>
-    <row r="674" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="46"/>
@@ -22862,7 +22912,7 @@
       <c r="F674" s="48"/>
       <c r="G674" s="48"/>
     </row>
-    <row r="675" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="46"/>
@@ -22871,7 +22921,7 @@
       <c r="F675" s="48"/>
       <c r="G675" s="48"/>
     </row>
-    <row r="676" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="46"/>
@@ -22880,7 +22930,7 @@
       <c r="F676" s="48"/>
       <c r="G676" s="48"/>
     </row>
-    <row r="677" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="46"/>
@@ -22889,7 +22939,7 @@
       <c r="F677" s="48"/>
       <c r="G677" s="48"/>
     </row>
-    <row r="678" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="46"/>
@@ -22898,7 +22948,7 @@
       <c r="F678" s="48"/>
       <c r="G678" s="48"/>
     </row>
-    <row r="679" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="46"/>
@@ -22907,7 +22957,7 @@
       <c r="F679" s="48"/>
       <c r="G679" s="48"/>
     </row>
-    <row r="680" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="46"/>
@@ -22916,7 +22966,7 @@
       <c r="F680" s="48"/>
       <c r="G680" s="48"/>
     </row>
-    <row r="681" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="46"/>
@@ -22925,7 +22975,7 @@
       <c r="F681" s="48"/>
       <c r="G681" s="48"/>
     </row>
-    <row r="682" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="46"/>
@@ -22934,7 +22984,7 @@
       <c r="F682" s="48"/>
       <c r="G682" s="48"/>
     </row>
-    <row r="683" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="46"/>
@@ -22943,7 +22993,7 @@
       <c r="F683" s="48"/>
       <c r="G683" s="48"/>
     </row>
-    <row r="684" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="46"/>
@@ -22952,7 +23002,7 @@
       <c r="F684" s="48"/>
       <c r="G684" s="48"/>
     </row>
-    <row r="685" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="46"/>
@@ -22961,7 +23011,7 @@
       <c r="F685" s="48"/>
       <c r="G685" s="48"/>
     </row>
-    <row r="686" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="46"/>
@@ -22970,7 +23020,7 @@
       <c r="F686" s="48"/>
       <c r="G686" s="48"/>
     </row>
-    <row r="687" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="46"/>
@@ -22979,7 +23029,7 @@
       <c r="F687" s="48"/>
       <c r="G687" s="48"/>
     </row>
-    <row r="688" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="46"/>
@@ -22988,7 +23038,7 @@
       <c r="F688" s="48"/>
       <c r="G688" s="48"/>
     </row>
-    <row r="689" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="46"/>
@@ -22997,7 +23047,7 @@
       <c r="F689" s="48"/>
       <c r="G689" s="48"/>
     </row>
-    <row r="690" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="46"/>
@@ -23006,7 +23056,7 @@
       <c r="F690" s="48"/>
       <c r="G690" s="48"/>
     </row>
-    <row r="691" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="46"/>
@@ -23015,7 +23065,7 @@
       <c r="F691" s="48"/>
       <c r="G691" s="48"/>
     </row>
-    <row r="692" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="46"/>
@@ -23024,7 +23074,7 @@
       <c r="F692" s="48"/>
       <c r="G692" s="48"/>
     </row>
-    <row r="693" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="46"/>
@@ -23033,7 +23083,7 @@
       <c r="F693" s="48"/>
       <c r="G693" s="48"/>
     </row>
-    <row r="694" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="46"/>
@@ -23042,7 +23092,7 @@
       <c r="F694" s="48"/>
       <c r="G694" s="48"/>
     </row>
-    <row r="695" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="46"/>
@@ -23051,7 +23101,7 @@
       <c r="F695" s="48"/>
       <c r="G695" s="48"/>
     </row>
-    <row r="696" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="46"/>
@@ -23060,7 +23110,7 @@
       <c r="F696" s="48"/>
       <c r="G696" s="48"/>
     </row>
-    <row r="697" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="46"/>
@@ -23069,7 +23119,7 @@
       <c r="F697" s="48"/>
       <c r="G697" s="48"/>
     </row>
-    <row r="698" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="46"/>
@@ -23078,7 +23128,7 @@
       <c r="F698" s="48"/>
       <c r="G698" s="48"/>
     </row>
-    <row r="699" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="46"/>
@@ -23087,7 +23137,7 @@
       <c r="F699" s="48"/>
       <c r="G699" s="48"/>
     </row>
-    <row r="700" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="46"/>
@@ -23096,7 +23146,7 @@
       <c r="F700" s="48"/>
       <c r="G700" s="48"/>
     </row>
-    <row r="701" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="46"/>
@@ -23105,7 +23155,7 @@
       <c r="F701" s="48"/>
       <c r="G701" s="48"/>
     </row>
-    <row r="702" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="46"/>
@@ -23114,7 +23164,7 @@
       <c r="F702" s="48"/>
       <c r="G702" s="48"/>
     </row>
-    <row r="703" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="46"/>
@@ -23123,7 +23173,7 @@
       <c r="F703" s="48"/>
       <c r="G703" s="48"/>
     </row>
-    <row r="704" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="46"/>
@@ -23132,7 +23182,7 @@
       <c r="F704" s="48"/>
       <c r="G704" s="48"/>
     </row>
-    <row r="705" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="46"/>
@@ -23141,7 +23191,7 @@
       <c r="F705" s="48"/>
       <c r="G705" s="48"/>
     </row>
-    <row r="706" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="46"/>
@@ -23150,7 +23200,7 @@
       <c r="F706" s="48"/>
       <c r="G706" s="48"/>
     </row>
-    <row r="707" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="46"/>
@@ -23159,7 +23209,7 @@
       <c r="F707" s="48"/>
       <c r="G707" s="48"/>
     </row>
-    <row r="708" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="46"/>
@@ -23168,7 +23218,7 @@
       <c r="F708" s="48"/>
       <c r="G708" s="48"/>
     </row>
-    <row r="709" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="46"/>
@@ -23177,7 +23227,7 @@
       <c r="F709" s="48"/>
       <c r="G709" s="48"/>
     </row>
-    <row r="710" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="46"/>
@@ -23186,7 +23236,7 @@
       <c r="F710" s="48"/>
       <c r="G710" s="48"/>
     </row>
-    <row r="711" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="46"/>
@@ -23195,7 +23245,7 @@
       <c r="F711" s="48"/>
       <c r="G711" s="48"/>
     </row>
-    <row r="712" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="46"/>
@@ -23204,7 +23254,7 @@
       <c r="F712" s="48"/>
       <c r="G712" s="48"/>
     </row>
-    <row r="713" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="46"/>
@@ -23213,7 +23263,7 @@
       <c r="F713" s="48"/>
       <c r="G713" s="48"/>
     </row>
-    <row r="714" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="46"/>
@@ -23222,7 +23272,7 @@
       <c r="F714" s="48"/>
       <c r="G714" s="48"/>
     </row>
-    <row r="715" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="46"/>
@@ -23231,7 +23281,7 @@
       <c r="F715" s="48"/>
       <c r="G715" s="48"/>
     </row>
-    <row r="716" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="46"/>
@@ -23240,7 +23290,7 @@
       <c r="F716" s="48"/>
       <c r="G716" s="48"/>
     </row>
-    <row r="717" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="46"/>
@@ -23249,7 +23299,7 @@
       <c r="F717" s="48"/>
       <c r="G717" s="48"/>
     </row>
-    <row r="718" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="46"/>
@@ -23258,7 +23308,7 @@
       <c r="F718" s="48"/>
       <c r="G718" s="48"/>
     </row>
-    <row r="719" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="46"/>
@@ -23267,7 +23317,7 @@
       <c r="F719" s="48"/>
       <c r="G719" s="48"/>
     </row>
-    <row r="720" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="46"/>
@@ -23276,7 +23326,7 @@
       <c r="F720" s="48"/>
       <c r="G720" s="48"/>
     </row>
-    <row r="721" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="46"/>
@@ -23285,7 +23335,7 @@
       <c r="F721" s="48"/>
       <c r="G721" s="48"/>
     </row>
-    <row r="722" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="46"/>
@@ -23294,7 +23344,7 @@
       <c r="F722" s="48"/>
       <c r="G722" s="48"/>
     </row>
-    <row r="723" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="46"/>
@@ -23303,7 +23353,7 @@
       <c r="F723" s="48"/>
       <c r="G723" s="48"/>
     </row>
-    <row r="724" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="46"/>
@@ -23312,7 +23362,7 @@
       <c r="F724" s="48"/>
       <c r="G724" s="48"/>
     </row>
-    <row r="725" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="46"/>
@@ -23321,7 +23371,7 @@
       <c r="F725" s="48"/>
       <c r="G725" s="48"/>
     </row>
-    <row r="726" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="46"/>
@@ -23330,7 +23380,7 @@
       <c r="F726" s="48"/>
       <c r="G726" s="48"/>
     </row>
-    <row r="727" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="46"/>
@@ -23339,7 +23389,7 @@
       <c r="F727" s="48"/>
       <c r="G727" s="48"/>
     </row>
-    <row r="728" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="46"/>
@@ -23348,7 +23398,7 @@
       <c r="F728" s="48"/>
       <c r="G728" s="48"/>
     </row>
-    <row r="729" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="46"/>
@@ -23357,7 +23407,7 @@
       <c r="F729" s="48"/>
       <c r="G729" s="48"/>
     </row>
-    <row r="730" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="46"/>
@@ -23366,7 +23416,7 @@
       <c r="F730" s="48"/>
       <c r="G730" s="48"/>
     </row>
-    <row r="731" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="46"/>
@@ -23375,7 +23425,7 @@
       <c r="F731" s="48"/>
       <c r="G731" s="48"/>
     </row>
-    <row r="732" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="46"/>
@@ -23384,7 +23434,7 @@
       <c r="F732" s="48"/>
       <c r="G732" s="48"/>
     </row>
-    <row r="733" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="46"/>
@@ -23393,7 +23443,7 @@
       <c r="F733" s="48"/>
       <c r="G733" s="48"/>
     </row>
-    <row r="734" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="46"/>
@@ -23402,7 +23452,7 @@
       <c r="F734" s="48"/>
       <c r="G734" s="48"/>
     </row>
-    <row r="735" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="46"/>
@@ -23411,7 +23461,7 @@
       <c r="F735" s="48"/>
       <c r="G735" s="48"/>
     </row>
-    <row r="736" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="46"/>
@@ -23420,7 +23470,7 @@
       <c r="F736" s="48"/>
       <c r="G736" s="48"/>
     </row>
-    <row r="737" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="46"/>
@@ -23429,7 +23479,7 @@
       <c r="F737" s="48"/>
       <c r="G737" s="48"/>
     </row>
-    <row r="738" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="46"/>
@@ -23438,7 +23488,7 @@
       <c r="F738" s="48"/>
       <c r="G738" s="48"/>
     </row>
-    <row r="739" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="46"/>
@@ -23447,7 +23497,7 @@
       <c r="F739" s="48"/>
       <c r="G739" s="48"/>
     </row>
-    <row r="740" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="46"/>
@@ -23456,7 +23506,7 @@
       <c r="F740" s="48"/>
       <c r="G740" s="48"/>
     </row>
-    <row r="741" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="46"/>
@@ -23465,7 +23515,7 @@
       <c r="F741" s="48"/>
       <c r="G741" s="48"/>
     </row>
-    <row r="742" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="46"/>
@@ -23474,7 +23524,7 @@
       <c r="F742" s="48"/>
       <c r="G742" s="48"/>
     </row>
-    <row r="743" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="46"/>
@@ -23483,7 +23533,7 @@
       <c r="F743" s="48"/>
       <c r="G743" s="48"/>
     </row>
-    <row r="744" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="46"/>
@@ -23492,7 +23542,7 @@
       <c r="F744" s="48"/>
       <c r="G744" s="48"/>
     </row>
-    <row r="745" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="46"/>
@@ -23501,7 +23551,7 @@
       <c r="F745" s="48"/>
       <c r="G745" s="48"/>
     </row>
-    <row r="746" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="46"/>
@@ -23510,7 +23560,7 @@
       <c r="F746" s="48"/>
       <c r="G746" s="48"/>
     </row>
-    <row r="747" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="46"/>
@@ -23519,7 +23569,7 @@
       <c r="F747" s="48"/>
       <c r="G747" s="48"/>
     </row>
-    <row r="748" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="46"/>
@@ -23528,7 +23578,7 @@
       <c r="F748" s="48"/>
       <c r="G748" s="48"/>
     </row>
-    <row r="749" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="46"/>
@@ -23537,7 +23587,7 @@
       <c r="F749" s="48"/>
       <c r="G749" s="48"/>
     </row>
-    <row r="750" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="46"/>
@@ -23546,7 +23596,7 @@
       <c r="F750" s="48"/>
       <c r="G750" s="48"/>
     </row>
-    <row r="751" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="46"/>
@@ -23555,7 +23605,7 @@
       <c r="F751" s="48"/>
       <c r="G751" s="48"/>
     </row>
-    <row r="752" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="46"/>
@@ -23564,7 +23614,7 @@
       <c r="F752" s="48"/>
       <c r="G752" s="48"/>
     </row>
-    <row r="753" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="46"/>
@@ -23573,7 +23623,7 @@
       <c r="F753" s="48"/>
       <c r="G753" s="48"/>
     </row>
-    <row r="754" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="46"/>
@@ -23582,7 +23632,7 @@
       <c r="F754" s="48"/>
       <c r="G754" s="48"/>
     </row>
-    <row r="755" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="46"/>
@@ -23591,7 +23641,7 @@
       <c r="F755" s="48"/>
       <c r="G755" s="48"/>
     </row>
-    <row r="756" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="46"/>
@@ -23600,7 +23650,7 @@
       <c r="F756" s="48"/>
       <c r="G756" s="48"/>
     </row>
-    <row r="757" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="46"/>
@@ -23609,7 +23659,7 @@
       <c r="F757" s="48"/>
       <c r="G757" s="48"/>
     </row>
-    <row r="758" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="46"/>
@@ -23618,7 +23668,7 @@
       <c r="F758" s="48"/>
       <c r="G758" s="48"/>
     </row>
-    <row r="759" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="46"/>
@@ -23627,7 +23677,7 @@
       <c r="F759" s="48"/>
       <c r="G759" s="48"/>
     </row>
-    <row r="760" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="46"/>
@@ -23636,7 +23686,7 @@
       <c r="F760" s="48"/>
       <c r="G760" s="48"/>
     </row>
-    <row r="761" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="46"/>
@@ -23645,7 +23695,7 @@
       <c r="F761" s="48"/>
       <c r="G761" s="48"/>
     </row>
-    <row r="762" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="46"/>
@@ -23654,7 +23704,7 @@
       <c r="F762" s="48"/>
       <c r="G762" s="48"/>
     </row>
-    <row r="763" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="46"/>
@@ -23663,7 +23713,7 @@
       <c r="F763" s="48"/>
       <c r="G763" s="48"/>
     </row>
-    <row r="764" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="46"/>
@@ -23672,7 +23722,7 @@
       <c r="F764" s="48"/>
       <c r="G764" s="48"/>
     </row>
-    <row r="765" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="46"/>
@@ -23681,7 +23731,7 @@
       <c r="F765" s="48"/>
       <c r="G765" s="48"/>
     </row>
-    <row r="766" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="46"/>
@@ -23690,7 +23740,7 @@
       <c r="F766" s="48"/>
       <c r="G766" s="48"/>
     </row>
-    <row r="767" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="46"/>
@@ -23699,7 +23749,7 @@
       <c r="F767" s="48"/>
       <c r="G767" s="48"/>
     </row>
-    <row r="768" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="46"/>
@@ -23708,7 +23758,7 @@
       <c r="F768" s="48"/>
       <c r="G768" s="48"/>
     </row>
-    <row r="769" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="46"/>
@@ -23717,7 +23767,7 @@
       <c r="F769" s="48"/>
       <c r="G769" s="48"/>
     </row>
-    <row r="770" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="46"/>
@@ -23726,7 +23776,7 @@
       <c r="F770" s="48"/>
       <c r="G770" s="48"/>
     </row>
-    <row r="771" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="46"/>
@@ -23735,7 +23785,7 @@
       <c r="F771" s="48"/>
       <c r="G771" s="48"/>
     </row>
-    <row r="772" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="46"/>
@@ -23744,7 +23794,7 @@
       <c r="F772" s="48"/>
       <c r="G772" s="48"/>
     </row>
-    <row r="773" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="46"/>
@@ -23753,7 +23803,7 @@
       <c r="F773" s="48"/>
       <c r="G773" s="48"/>
     </row>
-    <row r="774" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="46"/>
@@ -23762,7 +23812,7 @@
       <c r="F774" s="48"/>
       <c r="G774" s="48"/>
     </row>
-    <row r="775" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="46"/>
@@ -23771,7 +23821,7 @@
       <c r="F775" s="48"/>
       <c r="G775" s="48"/>
     </row>
-    <row r="776" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="46"/>
@@ -23780,7 +23830,7 @@
       <c r="F776" s="48"/>
       <c r="G776" s="48"/>
     </row>
-    <row r="777" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="46"/>
@@ -23789,7 +23839,7 @@
       <c r="F777" s="48"/>
       <c r="G777" s="48"/>
     </row>
-    <row r="778" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="46"/>
@@ -23798,7 +23848,7 @@
       <c r="F778" s="48"/>
       <c r="G778" s="48"/>
     </row>
-    <row r="779" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="46"/>
@@ -23807,7 +23857,7 @@
       <c r="F779" s="48"/>
       <c r="G779" s="48"/>
     </row>
-    <row r="780" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="46"/>
@@ -23816,7 +23866,7 @@
       <c r="F780" s="48"/>
       <c r="G780" s="48"/>
     </row>
-    <row r="781" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="46"/>
@@ -23825,7 +23875,7 @@
       <c r="F781" s="48"/>
       <c r="G781" s="48"/>
     </row>
-    <row r="782" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="46"/>
@@ -23834,7 +23884,7 @@
       <c r="F782" s="48"/>
       <c r="G782" s="48"/>
     </row>
-    <row r="783" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="46"/>
@@ -23843,7 +23893,7 @@
       <c r="F783" s="48"/>
       <c r="G783" s="48"/>
     </row>
-    <row r="784" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="46"/>
@@ -23852,7 +23902,7 @@
       <c r="F784" s="48"/>
       <c r="G784" s="48"/>
     </row>
-    <row r="785" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="46"/>
@@ -23861,7 +23911,7 @@
       <c r="F785" s="48"/>
       <c r="G785" s="48"/>
     </row>
-    <row r="786" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="46"/>
@@ -23870,7 +23920,7 @@
       <c r="F786" s="48"/>
       <c r="G786" s="48"/>
     </row>
-    <row r="787" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="46"/>
@@ -23879,7 +23929,7 @@
       <c r="F787" s="48"/>
       <c r="G787" s="48"/>
     </row>
-    <row r="788" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="46"/>
@@ -23888,7 +23938,7 @@
       <c r="F788" s="48"/>
       <c r="G788" s="48"/>
     </row>
-    <row r="789" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="46"/>
@@ -23897,7 +23947,7 @@
       <c r="F789" s="48"/>
       <c r="G789" s="48"/>
     </row>
-    <row r="790" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="46"/>
@@ -23906,7 +23956,7 @@
       <c r="F790" s="48"/>
       <c r="G790" s="48"/>
     </row>
-    <row r="791" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="46"/>
@@ -23915,7 +23965,7 @@
       <c r="F791" s="48"/>
       <c r="G791" s="48"/>
     </row>
-    <row r="792" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="46"/>
@@ -23924,7 +23974,7 @@
       <c r="F792" s="48"/>
       <c r="G792" s="48"/>
     </row>
-    <row r="793" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="46"/>
@@ -23933,7 +23983,7 @@
       <c r="F793" s="48"/>
       <c r="G793" s="48"/>
     </row>
-    <row r="794" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="46"/>
@@ -23942,7 +23992,7 @@
       <c r="F794" s="48"/>
       <c r="G794" s="48"/>
     </row>
-    <row r="795" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="46"/>
@@ -23951,7 +24001,7 @@
       <c r="F795" s="48"/>
       <c r="G795" s="48"/>
     </row>
-    <row r="796" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="46"/>
@@ -23960,7 +24010,7 @@
       <c r="F796" s="48"/>
       <c r="G796" s="48"/>
     </row>
-    <row r="797" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="46"/>
@@ -23969,7 +24019,7 @@
       <c r="F797" s="48"/>
       <c r="G797" s="48"/>
     </row>
-    <row r="798" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="46"/>
@@ -23978,7 +24028,7 @@
       <c r="F798" s="48"/>
       <c r="G798" s="48"/>
     </row>
-    <row r="799" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="46"/>
@@ -23987,7 +24037,7 @@
       <c r="F799" s="48"/>
       <c r="G799" s="48"/>
     </row>
-    <row r="800" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="46"/>
@@ -23996,7 +24046,7 @@
       <c r="F800" s="48"/>
       <c r="G800" s="48"/>
     </row>
-    <row r="801" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="46"/>
@@ -24005,7 +24055,7 @@
       <c r="F801" s="48"/>
       <c r="G801" s="48"/>
     </row>
-    <row r="802" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="46"/>
@@ -24014,7 +24064,7 @@
       <c r="F802" s="48"/>
       <c r="G802" s="48"/>
     </row>
-    <row r="803" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="46"/>
@@ -24023,7 +24073,7 @@
       <c r="F803" s="48"/>
       <c r="G803" s="48"/>
     </row>
-    <row r="804" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="46"/>
@@ -24032,7 +24082,7 @@
       <c r="F804" s="48"/>
       <c r="G804" s="48"/>
     </row>
-    <row r="805" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="46"/>
@@ -24041,7 +24091,7 @@
       <c r="F805" s="48"/>
       <c r="G805" s="48"/>
     </row>
-    <row r="806" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="46"/>
@@ -24050,7 +24100,7 @@
       <c r="F806" s="48"/>
       <c r="G806" s="48"/>
     </row>
-    <row r="807" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="46"/>
@@ -24059,7 +24109,7 @@
       <c r="F807" s="48"/>
       <c r="G807" s="48"/>
     </row>
-    <row r="808" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="46"/>
@@ -24068,7 +24118,7 @@
       <c r="F808" s="48"/>
       <c r="G808" s="48"/>
     </row>
-    <row r="809" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="46"/>
@@ -24077,7 +24127,7 @@
       <c r="F809" s="48"/>
       <c r="G809" s="48"/>
     </row>
-    <row r="810" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="46"/>
@@ -24086,7 +24136,7 @@
       <c r="F810" s="48"/>
       <c r="G810" s="48"/>
     </row>
-    <row r="811" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="46"/>
@@ -24095,7 +24145,7 @@
       <c r="F811" s="48"/>
       <c r="G811" s="48"/>
     </row>
-    <row r="812" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="46"/>
@@ -24104,7 +24154,7 @@
       <c r="F812" s="48"/>
       <c r="G812" s="48"/>
     </row>
-    <row r="813" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="46"/>
@@ -24113,7 +24163,7 @@
       <c r="F813" s="48"/>
       <c r="G813" s="48"/>
     </row>
-    <row r="814" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="46"/>
@@ -24122,7 +24172,7 @@
       <c r="F814" s="48"/>
       <c r="G814" s="48"/>
     </row>
-    <row r="815" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="46"/>
@@ -24131,7 +24181,7 @@
       <c r="F815" s="48"/>
       <c r="G815" s="48"/>
     </row>
-    <row r="816" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="46"/>
@@ -24140,7 +24190,7 @@
       <c r="F816" s="48"/>
       <c r="G816" s="48"/>
     </row>
-    <row r="817" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="46"/>
@@ -24149,7 +24199,7 @@
       <c r="F817" s="48"/>
       <c r="G817" s="48"/>
     </row>
-    <row r="818" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="46"/>
@@ -24158,7 +24208,7 @@
       <c r="F818" s="48"/>
       <c r="G818" s="48"/>
     </row>
-    <row r="819" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="46"/>
@@ -24167,7 +24217,7 @@
       <c r="F819" s="48"/>
       <c r="G819" s="48"/>
     </row>
-    <row r="820" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="46"/>
@@ -24176,7 +24226,7 @@
       <c r="F820" s="48"/>
       <c r="G820" s="48"/>
     </row>
-    <row r="821" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="46"/>
@@ -24185,7 +24235,7 @@
       <c r="F821" s="48"/>
       <c r="G821" s="48"/>
     </row>
-    <row r="822" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="46"/>
@@ -24194,7 +24244,7 @@
       <c r="F822" s="48"/>
       <c r="G822" s="48"/>
     </row>
-    <row r="823" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="46"/>
@@ -24203,7 +24253,7 @@
       <c r="F823" s="48"/>
       <c r="G823" s="48"/>
     </row>
-    <row r="824" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="46"/>
@@ -24212,7 +24262,7 @@
       <c r="F824" s="48"/>
       <c r="G824" s="48"/>
     </row>
-    <row r="825" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="46"/>
@@ -24221,7 +24271,7 @@
       <c r="F825" s="48"/>
       <c r="G825" s="48"/>
     </row>
-    <row r="826" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="46"/>
@@ -24230,7 +24280,7 @@
       <c r="F826" s="48"/>
       <c r="G826" s="48"/>
     </row>
-    <row r="827" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="46"/>
@@ -24239,7 +24289,7 @@
       <c r="F827" s="48"/>
       <c r="G827" s="48"/>
     </row>
-    <row r="828" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="46"/>
@@ -24248,7 +24298,7 @@
       <c r="F828" s="48"/>
       <c r="G828" s="48"/>
     </row>
-    <row r="829" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="46"/>
@@ -24257,7 +24307,7 @@
       <c r="F829" s="48"/>
       <c r="G829" s="48"/>
     </row>
-    <row r="830" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="46"/>
@@ -24266,7 +24316,7 @@
       <c r="F830" s="48"/>
       <c r="G830" s="48"/>
     </row>
-    <row r="831" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="46"/>
@@ -24275,7 +24325,7 @@
       <c r="F831" s="48"/>
       <c r="G831" s="48"/>
     </row>
-    <row r="832" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="46"/>
@@ -24284,7 +24334,7 @@
       <c r="F832" s="48"/>
       <c r="G832" s="48"/>
     </row>
-    <row r="833" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="46"/>
@@ -24293,7 +24343,7 @@
       <c r="F833" s="48"/>
       <c r="G833" s="48"/>
     </row>
-    <row r="834" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="46"/>
@@ -24302,7 +24352,7 @@
       <c r="F834" s="48"/>
       <c r="G834" s="48"/>
     </row>
-    <row r="835" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="46"/>
@@ -24311,7 +24361,7 @@
       <c r="F835" s="48"/>
       <c r="G835" s="48"/>
     </row>
-    <row r="836" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="46"/>
@@ -24320,7 +24370,7 @@
       <c r="F836" s="48"/>
       <c r="G836" s="48"/>
     </row>
-    <row r="837" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="46"/>
@@ -24329,7 +24379,7 @@
       <c r="F837" s="48"/>
       <c r="G837" s="48"/>
     </row>
-    <row r="838" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="46"/>
@@ -24338,7 +24388,7 @@
       <c r="F838" s="48"/>
       <c r="G838" s="48"/>
     </row>
-    <row r="839" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="46"/>
@@ -24347,7 +24397,7 @@
       <c r="F839" s="48"/>
       <c r="G839" s="48"/>
     </row>
-    <row r="840" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="46"/>
@@ -24356,7 +24406,7 @@
       <c r="F840" s="48"/>
       <c r="G840" s="48"/>
     </row>
-    <row r="841" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="46"/>
@@ -24365,7 +24415,7 @@
       <c r="F841" s="48"/>
       <c r="G841" s="48"/>
     </row>
-    <row r="842" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="46"/>
@@ -24374,7 +24424,7 @@
       <c r="F842" s="48"/>
       <c r="G842" s="48"/>
     </row>
-    <row r="843" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="46"/>
@@ -24383,7 +24433,7 @@
       <c r="F843" s="48"/>
       <c r="G843" s="48"/>
     </row>
-    <row r="844" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="46"/>
@@ -24392,7 +24442,7 @@
       <c r="F844" s="48"/>
       <c r="G844" s="48"/>
     </row>
-    <row r="845" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="46"/>
@@ -24401,7 +24451,7 @@
       <c r="F845" s="48"/>
       <c r="G845" s="48"/>
     </row>
-    <row r="846" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="46"/>
@@ -24410,7 +24460,7 @@
       <c r="F846" s="48"/>
       <c r="G846" s="48"/>
     </row>
-    <row r="847" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="46"/>
@@ -24419,7 +24469,7 @@
       <c r="F847" s="48"/>
       <c r="G847" s="48"/>
     </row>
-    <row r="848" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="46"/>
@@ -24428,7 +24478,7 @@
       <c r="F848" s="48"/>
       <c r="G848" s="48"/>
     </row>
-    <row r="849" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="46"/>
@@ -24437,7 +24487,7 @@
       <c r="F849" s="48"/>
       <c r="G849" s="48"/>
     </row>
-    <row r="850" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="46"/>
@@ -24446,7 +24496,7 @@
       <c r="F850" s="48"/>
       <c r="G850" s="48"/>
     </row>
-    <row r="851" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="46"/>
@@ -24455,7 +24505,7 @@
       <c r="F851" s="48"/>
       <c r="G851" s="48"/>
     </row>
-    <row r="852" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="46"/>
@@ -24464,7 +24514,7 @@
       <c r="F852" s="48"/>
       <c r="G852" s="48"/>
     </row>
-    <row r="853" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="46"/>
@@ -24473,7 +24523,7 @@
       <c r="F853" s="48"/>
       <c r="G853" s="48"/>
     </row>
-    <row r="854" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="46"/>
@@ -24482,7 +24532,7 @@
       <c r="F854" s="48"/>
       <c r="G854" s="48"/>
     </row>
-    <row r="855" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="46"/>
@@ -24491,7 +24541,7 @@
       <c r="F855" s="48"/>
       <c r="G855" s="48"/>
     </row>
-    <row r="856" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="46"/>
@@ -24500,7 +24550,7 @@
       <c r="F856" s="48"/>
       <c r="G856" s="48"/>
     </row>
-    <row r="857" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="46"/>
@@ -24509,7 +24559,7 @@
       <c r="F857" s="48"/>
       <c r="G857" s="48"/>
     </row>
-    <row r="858" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="46"/>
@@ -24518,7 +24568,7 @@
       <c r="F858" s="48"/>
       <c r="G858" s="48"/>
     </row>
-    <row r="859" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="46"/>
@@ -24527,7 +24577,7 @@
       <c r="F859" s="48"/>
       <c r="G859" s="48"/>
     </row>
-    <row r="860" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="46"/>
@@ -24536,7 +24586,7 @@
       <c r="F860" s="48"/>
       <c r="G860" s="48"/>
     </row>
-    <row r="861" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="46"/>
@@ -24545,7 +24595,7 @@
       <c r="F861" s="48"/>
       <c r="G861" s="48"/>
     </row>
-    <row r="862" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="46"/>
@@ -24554,7 +24604,7 @@
       <c r="F862" s="48"/>
       <c r="G862" s="48"/>
     </row>
-    <row r="863" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="46"/>
@@ -24563,7 +24613,7 @@
       <c r="F863" s="48"/>
       <c r="G863" s="48"/>
     </row>
-    <row r="864" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="46"/>
@@ -24572,7 +24622,7 @@
       <c r="F864" s="48"/>
       <c r="G864" s="48"/>
     </row>
-    <row r="865" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="46"/>
@@ -24581,7 +24631,7 @@
       <c r="F865" s="48"/>
       <c r="G865" s="48"/>
     </row>
-    <row r="866" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="46"/>
@@ -24590,7 +24640,7 @@
       <c r="F866" s="48"/>
       <c r="G866" s="48"/>
     </row>
-    <row r="867" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="46"/>
@@ -24599,7 +24649,7 @@
       <c r="F867" s="48"/>
       <c r="G867" s="48"/>
     </row>
-    <row r="868" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="46"/>
@@ -24608,7 +24658,7 @@
       <c r="F868" s="48"/>
       <c r="G868" s="48"/>
     </row>
-    <row r="869" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="46"/>
@@ -24617,7 +24667,7 @@
       <c r="F869" s="48"/>
       <c r="G869" s="48"/>
     </row>
-    <row r="870" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="46"/>
@@ -24626,7 +24676,7 @@
       <c r="F870" s="48"/>
       <c r="G870" s="48"/>
     </row>
-    <row r="871" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="46"/>
@@ -24635,7 +24685,7 @@
       <c r="F871" s="48"/>
       <c r="G871" s="48"/>
     </row>
-    <row r="872" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="46"/>
@@ -24644,7 +24694,7 @@
       <c r="F872" s="48"/>
       <c r="G872" s="48"/>
     </row>
-    <row r="873" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="46"/>
@@ -24653,7 +24703,7 @@
       <c r="F873" s="48"/>
       <c r="G873" s="48"/>
     </row>
-    <row r="874" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="46"/>
@@ -24662,7 +24712,7 @@
       <c r="F874" s="48"/>
       <c r="G874" s="48"/>
     </row>
-    <row r="875" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="46"/>
@@ -24671,7 +24721,7 @@
       <c r="F875" s="48"/>
       <c r="G875" s="48"/>
     </row>
-    <row r="876" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="46"/>
@@ -24680,7 +24730,7 @@
       <c r="F876" s="48"/>
       <c r="G876" s="48"/>
     </row>
-    <row r="877" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="46"/>
@@ -24689,7 +24739,7 @@
       <c r="F877" s="48"/>
       <c r="G877" s="48"/>
     </row>
-    <row r="878" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="46"/>
@@ -24698,7 +24748,7 @@
       <c r="F878" s="48"/>
       <c r="G878" s="48"/>
     </row>
-    <row r="879" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="46"/>
@@ -24707,7 +24757,7 @@
       <c r="F879" s="48"/>
       <c r="G879" s="48"/>
     </row>
-    <row r="880" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="46"/>
@@ -24716,7 +24766,7 @@
       <c r="F880" s="48"/>
       <c r="G880" s="48"/>
     </row>
-    <row r="881" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="46"/>
@@ -24725,7 +24775,7 @@
       <c r="F881" s="48"/>
       <c r="G881" s="48"/>
     </row>
-    <row r="882" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="46"/>
@@ -24734,7 +24784,7 @@
       <c r="F882" s="48"/>
       <c r="G882" s="48"/>
     </row>
-    <row r="883" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="46"/>
@@ -24743,7 +24793,7 @@
       <c r="F883" s="48"/>
       <c r="G883" s="48"/>
     </row>
-    <row r="884" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="46"/>
@@ -24752,7 +24802,7 @@
       <c r="F884" s="48"/>
       <c r="G884" s="48"/>
     </row>
-    <row r="885" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="46"/>
@@ -24761,7 +24811,7 @@
       <c r="F885" s="48"/>
       <c r="G885" s="48"/>
     </row>
-    <row r="886" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="46"/>
@@ -24770,7 +24820,7 @@
       <c r="F886" s="48"/>
       <c r="G886" s="48"/>
     </row>
-    <row r="887" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="46"/>
@@ -24779,7 +24829,7 @@
       <c r="F887" s="48"/>
       <c r="G887" s="48"/>
     </row>
-    <row r="888" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="46"/>
@@ -24788,7 +24838,7 @@
       <c r="F888" s="48"/>
       <c r="G888" s="48"/>
     </row>
-    <row r="889" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="46"/>
@@ -24797,7 +24847,7 @@
       <c r="F889" s="48"/>
       <c r="G889" s="48"/>
     </row>
-    <row r="890" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="46"/>
@@ -24806,7 +24856,7 @@
       <c r="F890" s="48"/>
       <c r="G890" s="48"/>
     </row>
-    <row r="891" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="46"/>
@@ -24815,7 +24865,7 @@
       <c r="F891" s="48"/>
       <c r="G891" s="48"/>
     </row>
-    <row r="892" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="46"/>
@@ -24824,7 +24874,7 @@
       <c r="F892" s="48"/>
       <c r="G892" s="48"/>
     </row>
-    <row r="893" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="46"/>
@@ -24833,7 +24883,7 @@
       <c r="F893" s="48"/>
       <c r="G893" s="48"/>
     </row>
-    <row r="894" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="46"/>
@@ -24842,7 +24892,7 @@
       <c r="F894" s="48"/>
       <c r="G894" s="48"/>
     </row>
-    <row r="895" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="46"/>
@@ -24851,7 +24901,7 @@
       <c r="F895" s="48"/>
       <c r="G895" s="48"/>
     </row>
-    <row r="896" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="46"/>
@@ -24860,7 +24910,7 @@
       <c r="F896" s="48"/>
       <c r="G896" s="48"/>
     </row>
-    <row r="897" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="46"/>
@@ -24869,7 +24919,7 @@
       <c r="F897" s="48"/>
       <c r="G897" s="48"/>
     </row>
-    <row r="898" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="46"/>
@@ -24878,7 +24928,7 @@
       <c r="F898" s="48"/>
       <c r="G898" s="48"/>
     </row>
-    <row r="899" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="46"/>
@@ -24887,7 +24937,7 @@
       <c r="F899" s="48"/>
       <c r="G899" s="48"/>
     </row>
-    <row r="900" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="46"/>
@@ -24896,7 +24946,7 @@
       <c r="F900" s="48"/>
       <c r="G900" s="48"/>
     </row>
-    <row r="901" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="46"/>
@@ -24905,7 +24955,7 @@
       <c r="F901" s="48"/>
       <c r="G901" s="48"/>
     </row>
-    <row r="902" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="46"/>
@@ -24914,7 +24964,7 @@
       <c r="F902" s="48"/>
       <c r="G902" s="48"/>
     </row>
-    <row r="903" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="46"/>
@@ -24923,7 +24973,7 @@
       <c r="F903" s="48"/>
       <c r="G903" s="48"/>
     </row>
-    <row r="904" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="46"/>
@@ -24932,7 +24982,7 @@
       <c r="F904" s="48"/>
       <c r="G904" s="48"/>
     </row>
-    <row r="905" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="46"/>
@@ -24941,7 +24991,7 @@
       <c r="F905" s="48"/>
       <c r="G905" s="48"/>
     </row>
-    <row r="906" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="46"/>
@@ -24950,7 +25000,7 @@
       <c r="F906" s="48"/>
       <c r="G906" s="48"/>
     </row>
-    <row r="907" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="46"/>
@@ -24959,7 +25009,7 @@
       <c r="F907" s="48"/>
       <c r="G907" s="48"/>
     </row>
-    <row r="908" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="46"/>
@@ -24968,7 +25018,7 @@
       <c r="F908" s="48"/>
       <c r="G908" s="48"/>
     </row>
-    <row r="909" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="46"/>
@@ -24977,7 +25027,7 @@
       <c r="F909" s="48"/>
       <c r="G909" s="48"/>
     </row>
-    <row r="910" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="46"/>
@@ -24986,7 +25036,7 @@
       <c r="F910" s="48"/>
       <c r="G910" s="48"/>
     </row>
-    <row r="911" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="46"/>
@@ -24995,7 +25045,7 @@
       <c r="F911" s="48"/>
       <c r="G911" s="48"/>
     </row>
-    <row r="912" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="46"/>
@@ -25004,7 +25054,7 @@
       <c r="F912" s="48"/>
       <c r="G912" s="48"/>
     </row>
-    <row r="913" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="46"/>
@@ -25013,7 +25063,7 @@
       <c r="F913" s="48"/>
       <c r="G913" s="48"/>
     </row>
-    <row r="914" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="46"/>
@@ -25022,7 +25072,7 @@
       <c r="F914" s="48"/>
       <c r="G914" s="48"/>
     </row>
-    <row r="915" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="46"/>
@@ -25031,7 +25081,7 @@
       <c r="F915" s="48"/>
       <c r="G915" s="48"/>
     </row>
-    <row r="916" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="46"/>
@@ -25040,7 +25090,7 @@
       <c r="F916" s="48"/>
       <c r="G916" s="48"/>
     </row>
-    <row r="917" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="46"/>
@@ -25049,7 +25099,7 @@
       <c r="F917" s="48"/>
       <c r="G917" s="48"/>
     </row>
-    <row r="918" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="46"/>
@@ -25058,7 +25108,7 @@
       <c r="F918" s="48"/>
       <c r="G918" s="48"/>
     </row>
-    <row r="919" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="46"/>
@@ -25067,7 +25117,7 @@
       <c r="F919" s="48"/>
       <c r="G919" s="48"/>
     </row>
-    <row r="920" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="46"/>
@@ -25076,7 +25126,7 @@
       <c r="F920" s="48"/>
       <c r="G920" s="48"/>
     </row>
-    <row r="921" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="46"/>
@@ -25085,7 +25135,7 @@
       <c r="F921" s="48"/>
       <c r="G921" s="48"/>
     </row>
-    <row r="922" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="46"/>
@@ -25095,7 +25145,46 @@
       <c r="G922" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:H523" xr:uid="{52B73EFE-A09F-4A1C-919D-D927220F56A4}"/>
+  <autoFilter ref="B7:J523" xr:uid="{3A6C5435-28AC-48AD-A4AE-D532A2415063}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="1.000.000"/>
+        <filter val="1.500.000"/>
+        <filter val="104.100.000"/>
+        <filter val="126.100.000"/>
+        <filter val="13.000.000"/>
+        <filter val="13.060.000"/>
+        <filter val="14.000.000"/>
+        <filter val="16.200.000"/>
+        <filter val="17.060.000"/>
+        <filter val="190.040.000"/>
+        <filter val="194.540.000"/>
+        <filter val="2.500.000"/>
+        <filter val="20.310.000"/>
+        <filter val="22.000.000"/>
+        <filter val="22.500.000"/>
+        <filter val="23.000.000"/>
+        <filter val="237.850.000"/>
+        <filter val="250.000"/>
+        <filter val="272.150.000"/>
+        <filter val="3.000.000"/>
+        <filter val="3.250.000"/>
+        <filter val="30.240.000"/>
+        <filter val="33.600.000"/>
+        <filter val="34.300.000"/>
+        <filter val="380.000"/>
+        <filter val="4.000.000"/>
+        <filter val="4.500.000"/>
+        <filter val="43.310.000"/>
+        <filter val="48.000.000"/>
+        <filter val="50.940.000"/>
+        <filter val="6.180.000"/>
+        <filter val="63.940.000"/>
+        <filter val="9.000.000"/>
+        <filter val="9.060.000"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
